--- a/OWLPHM Gráfica.xlsx
+++ b/OWLPHM Gráfica.xlsx
@@ -13859,7 +13859,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>hasCode</a:t>
+            <a:t>hasID</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -14674,134 +14674,6 @@
         <a:xfrm rot="10800000">
           <a:off x="6415223" y="12232499"/>
           <a:ext cx="1150351" cy="2429198"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>544287</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>108859</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="318" name="Retângulo 317"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3864430" y="35664322"/>
-          <a:ext cx="966107" cy="449037"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="339933"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1001">
-          <a:schemeClr val="dk2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>hasID</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="660066"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>xsd:string</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>544287</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>74841</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>291802</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="319" name="Conector em curva 318"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="318" idx="3"/>
-          <a:endCxn id="26" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4830537" y="35888841"/>
-          <a:ext cx="972158" cy="2282597"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -19326,8 +19198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:T461"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A173" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H194" sqref="H194"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G197" sqref="G197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OWLPHM Gráfica.xlsx
+++ b/OWLPHM Gráfica.xlsx
@@ -85,10 +85,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF660066"/>
       <color rgb="FF339933"/>
       <color rgb="FF33CC33"/>
       <color rgb="FF00CC00"/>
-      <color rgb="FF660066"/>
       <color rgb="FF008000"/>
       <color rgb="FF0066FF"/>
       <color rgb="FF0099FF"/>
@@ -9751,14 +9751,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>173760</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>63437</xdr:rowOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>131472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>340179</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>97054</xdr:rowOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>165089</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9767,8 +9767,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9766796" y="32829437"/>
-          <a:ext cx="1391062" cy="414617"/>
+          <a:off x="10991439" y="32706972"/>
+          <a:ext cx="1391061" cy="414617"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9838,15 +9838,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>423557</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>80246</xdr:rowOff>
+      <xdr:colOff>423558</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>148280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>173760</xdr:colOff>
+      <xdr:colOff>173761</xdr:colOff>
       <xdr:row>174</xdr:row>
-      <xdr:rowOff>74772</xdr:rowOff>
+      <xdr:rowOff>74771</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9858,8 +9858,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="7431236" y="33036746"/>
-          <a:ext cx="2335560" cy="185026"/>
+          <a:off x="8655879" y="32914280"/>
+          <a:ext cx="2335561" cy="307491"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -12175,15 +12175,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>281234</xdr:colOff>
+      <xdr:colOff>281233</xdr:colOff>
       <xdr:row>173</xdr:row>
-      <xdr:rowOff>169365</xdr:rowOff>
+      <xdr:rowOff>169364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>142354</xdr:colOff>
       <xdr:row>175</xdr:row>
-      <xdr:rowOff>190272</xdr:rowOff>
+      <xdr:rowOff>190271</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12195,12 +12195,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="10433912" y="29232473"/>
-          <a:ext cx="401907" cy="8188691"/>
+          <a:off x="11658554" y="29232472"/>
+          <a:ext cx="401907" cy="8188692"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 339704"/>
+            <a:gd name="adj1" fmla="val 481901"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -12369,7 +12369,7 @@
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 191402"/>
+            <a:gd name="adj1" fmla="val 244254"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -18310,15 +18310,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>105723</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:colOff>92116</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>398677</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>6403</xdr:rowOff>
+      <xdr:colOff>385070</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>88046</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18327,8 +18327,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9698759" y="33500786"/>
-          <a:ext cx="1517597" cy="414617"/>
+          <a:off x="10909795" y="34153929"/>
+          <a:ext cx="1517596" cy="414617"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -18400,13 +18400,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>423558</xdr:colOff>
       <xdr:row>174</xdr:row>
-      <xdr:rowOff>74773</xdr:rowOff>
+      <xdr:rowOff>74772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>105724</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>180096</xdr:rowOff>
+      <xdr:colOff>92117</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>71238</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -18418,8 +18418,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="7431237" y="33221773"/>
-          <a:ext cx="2267523" cy="486323"/>
+          <a:off x="8655879" y="33221772"/>
+          <a:ext cx="2253917" cy="1139466"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -18930,6 +18930,228 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>734784</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>127223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>4760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="318" name="Retângulo 317"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7470320" y="34607723"/>
+          <a:ext cx="1156608" cy="449037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="339933"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1001">
+          <a:schemeClr val="dk2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>isCausedBy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>xsd:string</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>399794</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>100648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>734785</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>161243</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="319" name="Conector em curva 318"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="318" idx="1"/>
+          <a:endCxn id="119" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7135330" y="33438148"/>
+          <a:ext cx="334991" cy="1394095"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="255904" cy="1272143"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="CaixaDeTexto 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11511642" y="32956499"/>
+          <a:ext cx="255904" cy="1272143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19198,8 +19420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:T461"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G197" sqref="G197"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A161" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z189" sqref="Z189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OWLPHM Gráfica.xlsx
+++ b/OWLPHM Gráfica.xlsx
@@ -13054,178 +13054,6 @@
         <a:xfrm rot="5400000" flipH="1" flipV="1">
           <a:off x="-5707281" y="11611292"/>
           <a:ext cx="18377939" cy="1180339"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="660066"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>449036</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>449036</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>117731</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="368" name="Retângulo 367"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1061357" y="28357285"/>
-          <a:ext cx="1224643" cy="335446"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="0066FF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1001">
-          <a:schemeClr val="dk2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>isMonitoringWith</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>449037</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>117730</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>259282</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>98651</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="369" name="Conector em curva 368"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="368" idx="2"/>
-          <a:endCxn id="16" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-3133337" y="33499747"/>
-          <a:ext cx="10648921" cy="1034888"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>449035</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>154992</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>397928</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="372" name="Conector em curva 371"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="368" idx="0"/>
-          <a:endCxn id="292" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="-9799629" y="14485799"/>
-          <a:ext cx="25344794" cy="2398179"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>

--- a/OWLPHM Gráfica.xlsx
+++ b/OWLPHM Gráfica.xlsx
@@ -266,8 +266,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1573754" y="9855812"/>
-          <a:ext cx="1611838" cy="20762980"/>
+          <a:off x="1561384" y="9855812"/>
+          <a:ext cx="1593283" cy="20762980"/>
           <a:chOff x="351550" y="-18719188"/>
           <a:chExt cx="1605575" cy="20762980"/>
         </a:xfrm>
@@ -12058,15 +12058,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>307371</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>24419</xdr:rowOff>
+      <xdr:colOff>255417</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>128328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>589655</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>169365</xdr:rowOff>
+      <xdr:colOff>537701</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>82774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12075,8 +12075,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14281907" y="32790419"/>
-          <a:ext cx="894605" cy="335446"/>
+          <a:off x="15322235" y="33275328"/>
+          <a:ext cx="888421" cy="335446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12123,15 +12123,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>329467</xdr:colOff>
+      <xdr:colOff>329468</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>62003</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>142353</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>24419</xdr:rowOff>
+      <xdr:colOff>93492</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>128328</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12143,12 +12143,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="5820024" y="23881232"/>
-          <a:ext cx="9677916" cy="8140457"/>
+          <a:off x="6672636" y="24181517"/>
+          <a:ext cx="10162825" cy="8024797"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 80791"/>
+            <a:gd name="adj1" fmla="val 82207"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -12176,14 +12176,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>281233</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>169364</xdr:rowOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>190273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>142354</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>190271</xdr:rowOff>
+      <xdr:colOff>93491</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>82775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12194,13 +12194,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="11658554" y="29232472"/>
-          <a:ext cx="401907" cy="8188692"/>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="11688430" y="29532758"/>
+          <a:ext cx="83002" cy="8073031"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 481901"/>
+            <a:gd name="adj1" fmla="val -275415"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -12398,16 +12398,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>394607</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>54426</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>40822</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>176891</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>256336</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>73237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>507669</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>5202</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12416,8 +12416,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12123964" y="5388426"/>
-          <a:ext cx="1483179" cy="312965"/>
+          <a:off x="16258336" y="31886737"/>
+          <a:ext cx="1489583" cy="312965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12464,32 +12464,32 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>319223</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>54116</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>54426</xdr:rowOff>
+      <xdr:colOff>291803</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>5202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>382003</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="288" name="Conector em curva 287"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="287" idx="0"/>
-          <a:endCxn id="292" idx="4"/>
+          <a:stCxn id="287" idx="2"/>
+          <a:endCxn id="26" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="7592359" y="115230"/>
-          <a:ext cx="2286310" cy="8260081"/>
+        <a:xfrm rot="5400000">
+          <a:off x="8447660" y="29615970"/>
+          <a:ext cx="5971736" cy="11139200"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 19840"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -12516,32 +12516,32 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>213302</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>176891</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>89624</xdr:rowOff>
+      <xdr:colOff>169462</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>141374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>382004</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>73237</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="289" name="Conector em curva 288"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="287" idx="2"/>
-          <a:endCxn id="333" idx="7"/>
+          <a:stCxn id="287" idx="0"/>
+          <a:endCxn id="333" idx="5"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="6902830" y="5747399"/>
-          <a:ext cx="6008733" cy="5916717"/>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="2881551" y="17765160"/>
+          <a:ext cx="19743863" cy="8499292"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 53850"/>
+            <a:gd name="adj1" fmla="val 87366"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -13279,7 +13279,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="4700718" y="10177827"/>
+          <a:off x="5925361" y="10177827"/>
           <a:ext cx="959858" cy="1748673"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
@@ -14401,16 +14401,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>27216</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>125866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>217716</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>149680</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:colOff>435430</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>3403</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14419,8 +14419,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7565573" y="14437178"/>
-          <a:ext cx="1156607" cy="449037"/>
+          <a:off x="8361591" y="14984866"/>
+          <a:ext cx="1170214" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14480,15 +14480,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>292009</xdr:colOff>
+      <xdr:colOff>292008</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>40499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>217717</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>183697</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>27216</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>159885</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14500,8 +14500,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6415223" y="12232499"/>
-          <a:ext cx="1150351" cy="2429198"/>
+          <a:off x="7864383" y="12232499"/>
+          <a:ext cx="497208" cy="2976886"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -14915,16 +14915,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>173491</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>30615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>244929</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
+      <xdr:colOff>581705</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>98652</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14933,8 +14933,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7592786" y="13770428"/>
-          <a:ext cx="1156607" cy="449037"/>
+          <a:off x="8507866" y="14127615"/>
+          <a:ext cx="1170214" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14994,15 +14994,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>292008</xdr:colOff>
+      <xdr:colOff>292009</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>40499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>244929</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>88447</xdr:rowOff>
+      <xdr:rowOff>40500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>173492</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>64635</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15014,8 +15014,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6415222" y="12232499"/>
-          <a:ext cx="1177564" cy="1762448"/>
+          <a:off x="7864384" y="12232500"/>
+          <a:ext cx="643483" cy="2119635"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -18760,16 +18760,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>111329</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>144541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>734784</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>127223</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>394607</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>4760</xdr:rowOff>
+      <xdr:colOff>48243</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>22078</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18778,8 +18778,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7470320" y="34607723"/>
-          <a:ext cx="1156608" cy="449037"/>
+          <a:off x="5566556" y="33672541"/>
+          <a:ext cx="1149187" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18839,28 +18839,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>399794</xdr:colOff>
+      <xdr:colOff>48243</xdr:colOff>
       <xdr:row>175</xdr:row>
-      <xdr:rowOff>100648</xdr:rowOff>
+      <xdr:rowOff>100647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>734785</xdr:colOff>
-      <xdr:row>182</xdr:row>
-      <xdr:rowOff>161243</xdr:rowOff>
+      <xdr:colOff>398706</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>178560</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="319" name="Conector em curva 318"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="318" idx="1"/>
+          <a:stCxn id="318" idx="3"/>
           <a:endCxn id="119" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="7135330" y="33438148"/>
-          <a:ext cx="334991" cy="1394095"/>
+        <a:xfrm flipV="1">
+          <a:off x="6715743" y="33438147"/>
+          <a:ext cx="350463" cy="458913"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -19248,8 +19248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:T461"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A161" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z189" sqref="Z189"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A129" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z88" sqref="Z88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OWLPHM Gráfica.xlsx
+++ b/OWLPHM Gráfica.xlsx
@@ -18279,15 +18279,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>421821</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>353786</xdr:colOff>
+      <xdr:colOff>58139</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>45769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>596241</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:rowOff>113806</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18296,8 +18296,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="421821" y="31582178"/>
-          <a:ext cx="1156608" cy="449037"/>
+          <a:off x="58139" y="31668769"/>
+          <a:ext cx="1144238" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18357,15 +18357,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>387803</xdr:colOff>
+      <xdr:colOff>24123</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>76881</xdr:rowOff>
+      <xdr:rowOff>76880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>31296</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:colOff>31298</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>45769</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -18377,8 +18377,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="805883" y="31132122"/>
-          <a:ext cx="644298" cy="255815"/>
+          <a:off x="571470" y="30996669"/>
+          <a:ext cx="730889" cy="613312"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>

--- a/OWLPHM Gráfica.xlsx
+++ b/OWLPHM Gráfica.xlsx
@@ -86,6 +86,7 @@
   <colors>
     <mruColors>
       <color rgb="FF660066"/>
+      <color rgb="FF65FF65"/>
       <color rgb="FF339933"/>
       <color rgb="FF33CC33"/>
       <color rgb="FF00CC00"/>
@@ -6574,7 +6575,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Collector</a:t>
+            <a:t>Vibration Collector</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6638,7 +6639,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Measurement Location</a:t>
+            <a:t>Vibration Measurement</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6702,6 +6703,22 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
+            <a:t>Vibration</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>Magnitude</a:t>
           </a:r>
         </a:p>
@@ -6766,7 +6783,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Zone Boundary</a:t>
+            <a:t>Vibration Zone Boundary</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14275,16 +14292,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>27216</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>125866</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>435430</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>3403</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>384403</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>328273</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14293,14 +14310,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8361591" y="14984866"/>
-          <a:ext cx="1170214" cy="449037"/>
+          <a:off x="11314341" y="14246678"/>
+          <a:ext cx="1158307" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="339933"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -14328,21 +14348,29 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>hasHealth</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="660066"/>
               </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>xsd:string</a:t>
           </a:r>
@@ -14353,34 +14381,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>328273</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>111938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>327728</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>111939</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>27217</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>159886</xdr:rowOff>
+      <xdr:colOff>327727</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>183697</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="317" name="Conector em curva 316"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="316" idx="1"/>
+          <a:stCxn id="316" idx="3"/>
           <a:endCxn id="333" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="20508822" y="13065939"/>
-          <a:ext cx="449583" cy="2143447"/>
+        <a:xfrm flipV="1">
+          <a:off x="12472648" y="13065938"/>
+          <a:ext cx="8036173" cy="1405259"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="28575">
+          <a:prstDash val="sysDash"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -14403,16 +14432,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>540883</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>17008</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>76539</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>112258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>472848</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>85045</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>180295</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14421,7 +14450,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18150227" y="14876008"/>
+          <a:off x="21007727" y="14209258"/>
           <a:ext cx="1146402" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14481,29 +14510,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>472848</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>111938</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>327727</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>51027</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>111939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>76539</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>146278</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="324" name="Conector em curva 323"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="323" idx="3"/>
+          <a:stCxn id="323" idx="1"/>
           <a:endCxn id="333" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="19296629" y="13065938"/>
-          <a:ext cx="1212192" cy="2034589"/>
+        <a:xfrm rot="10800000">
+          <a:off x="20508821" y="13065939"/>
+          <a:ext cx="498906" cy="1367839"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -14789,16 +14818,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>42521</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>462642</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>110558</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>18710</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>185395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>569798</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>62932</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14807,14 +14836,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20985616" y="14330021"/>
+          <a:off x="11555866" y="13139395"/>
           <a:ext cx="1158307" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="339933"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -14842,21 +14874,29 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>hasWarning</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="660066"/>
               </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>xsd:string</a:t>
           </a:r>
@@ -14867,34 +14907,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>327728</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>569798</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>111938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>76540</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>327727</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>28914</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="340" name="Conector em curva 339"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="339" idx="1"/>
+          <a:stCxn id="339" idx="3"/>
           <a:endCxn id="333" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="20508822" y="13065938"/>
-          <a:ext cx="476795" cy="1488602"/>
+        <a:xfrm flipV="1">
+          <a:off x="12714173" y="13065938"/>
+          <a:ext cx="7794648" cy="297976"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="28575">
+          <a:prstDash val="sysDash"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -16531,10 +16572,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>7102</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>132373</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>578601</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>96654</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="264560" cy="819648"/>
     <xdr:sp macro="" textlink="">
@@ -16544,7 +16585,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16430274">
-          <a:off x="16124464" y="8220417"/>
+          <a:off x="16088745" y="8565698"/>
           <a:ext cx="819648" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20061,7 +20102,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Vibration Measurement</a:t>
+            <a:t>Measurement Location</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20780,6 +20821,645 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>574902</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>68038</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="344" name="Retângulo 343"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13108781" y="6667501"/>
+          <a:ext cx="1432152" cy="449037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="339933"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1001">
+          <a:schemeClr val="dk2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>hasZone</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>xsd:string</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>574902</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>34020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>380450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>74310</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="345" name="Conector em curva 344"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="344" idx="3"/>
+          <a:endCxn id="335" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14540933" y="6892020"/>
+          <a:ext cx="5270517" cy="802290"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>574903</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>8506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="346" name="Retângulo 345"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13108782" y="7560469"/>
+          <a:ext cx="1432152" cy="449037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1001">
+          <a:schemeClr val="dk2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>hasVelocity</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>xsd:string</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>574903</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>74310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>380450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>164988</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="349" name="Conector em curva 348"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="346" idx="3"/>
+          <a:endCxn id="335" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14540934" y="7694310"/>
+          <a:ext cx="5270516" cy="90678"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 47520"/>
+            <a:gd name="adj2" fmla="val 499701"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>59532</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>270783</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="350" name="Retângulo 349"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8560595" y="7572374"/>
+          <a:ext cx="4461782" cy="2000251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Rule:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Group3(?Gp3) ^ hasZone(?Gp3, "Good") -&gt; hasVelocity(?Gp3, "greater than or equal 0 and less than or equal 2.3")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Rule: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Group3(?Gp3) ^ hasZone(?Gp3, "Satisfactory") -&gt; hasVelocity(?Gp3, "greater than 2.3 and less than or equal 4.5")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Rule: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Group3(?Gp3) ^ hasZone(?Gp3, "Alert") -&gt; hasVelocity(?Gp3, "greater than 4.5 and less than or equal 7.1")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Rule: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Group3(?Gp3) ^ hasZone(?Gp3, "Alarm") -&gt; hasVelocity(?Gp3, "greater than 7.1")</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>366031</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="351" name="Retângulo 350"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6834187" y="13156407"/>
+          <a:ext cx="4461782" cy="690562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Rule:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>223156</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="352" name="Retângulo 351"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6691312" y="14251782"/>
+          <a:ext cx="4461782" cy="690562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Rule:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -21048,8 +21728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Z1:AO461"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AL77" sqref="AL77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Y73" sqref="Y73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OWLPHM Gráfica.xlsx
+++ b/OWLPHM Gráfica.xlsx
@@ -267,8 +267,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14386580" y="10522562"/>
-          <a:ext cx="1513187" cy="20096229"/>
+          <a:off x="14503942" y="10522562"/>
+          <a:ext cx="1528494" cy="20096229"/>
           <a:chOff x="423393" y="-18052438"/>
           <a:chExt cx="1521759" cy="20096229"/>
         </a:xfrm>
@@ -6418,29 +6418,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>188890</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>313922</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>129115</xdr:rowOff>
+      <xdr:rowOff>129116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>176898</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>120062</xdr:rowOff>
+      <xdr:colOff>176899</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19188</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="1075" name="Conector em curva 1074"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="292" idx="2"/>
-          <a:endCxn id="4" idx="0"/>
+          <a:endCxn id="4" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="16583796" y="2796115"/>
-          <a:ext cx="1202446" cy="7420447"/>
+          <a:off x="16234279" y="2796116"/>
+          <a:ext cx="1699941" cy="7510072"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -6632,15 +6632,40 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Vibration Measurement</a:t>
           </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12418,16 +12443,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>287150</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>188097</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>536383</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>120062</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>178292</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>24132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>130587</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12436,8 +12461,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9363915" y="28763097"/>
-          <a:ext cx="1459468" cy="312965"/>
+          <a:off x="14261685" y="10311132"/>
+          <a:ext cx="1196029" cy="296955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12474,7 +12499,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>hasMeasurementPoint</a:t>
+            <a:t>hasMeasurement</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12483,33 +12508,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>411766</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>120062</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>163986</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>54116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>291802</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:colOff>319223</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>24132</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="288" name="Conector em curva 287"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="287" idx="2"/>
-          <a:endCxn id="26" idx="0"/>
+          <a:stCxn id="287" idx="0"/>
+          <a:endCxn id="292" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9721802" y="29447908"/>
-          <a:ext cx="9095376" cy="8351683"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="13169775" y="4792041"/>
+          <a:ext cx="7209016" cy="3829166"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 53450"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -12535,33 +12560,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>411767</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>163985</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>130587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>446286</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>161063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>446785</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>188097</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="289" name="Conector em curva 288"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="287" idx="0"/>
+          <a:stCxn id="287" idx="2"/>
           <a:endCxn id="333" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="6892759" y="15778071"/>
-          <a:ext cx="16219534" cy="9750518"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="16482398" y="8985388"/>
+          <a:ext cx="1935476" cy="5180873"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 101962"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -13480,16 +13505,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>561296</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>132671</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>520475</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>78242</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>105456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>588510</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13498,8 +13523,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14182046" y="5657171"/>
-          <a:ext cx="1197429" cy="326571"/>
+          <a:off x="16682357" y="6963456"/>
+          <a:ext cx="1051153" cy="316365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13545,33 +13570,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>540886</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>103241</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>399922</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>132671</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>62934</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76744</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>478603</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>105457</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="429" name="Conector em curva 428"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="428" idx="0"/>
-          <a:endCxn id="292" idx="1"/>
+          <a:endCxn id="332" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="15028939" y="2331563"/>
-          <a:ext cx="3077430" cy="3573786"/>
+          <a:off x="18149805" y="5040373"/>
+          <a:ext cx="981213" cy="2864955"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 110341"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -13597,16 +13622,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>540887</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>78241</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>62933</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>501212</xdr:colOff>
+      <xdr:colOff>500712</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>23290</xdr:rowOff>
+      <xdr:rowOff>23291</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13618,8 +13643,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="15056290" y="5434369"/>
-          <a:ext cx="4326549" cy="5425294"/>
+          <a:off x="17136231" y="7351523"/>
+          <a:ext cx="3030470" cy="2887065"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -16572,10 +16597,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>578601</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>96654</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>333671</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>96656</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="264560" cy="819648"/>
     <xdr:sp macro="" textlink="">
@@ -16584,8 +16609,8 @@
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16430274">
-          <a:off x="16088745" y="8565698"/>
+        <a:xfrm rot="16839378">
+          <a:off x="16588806" y="4755700"/>
           <a:ext cx="819648" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17142,15 +17167,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>432225</xdr:colOff>
+      <xdr:colOff>473046</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>65430</xdr:rowOff>
+      <xdr:rowOff>65431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>157075</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>175031</xdr:rowOff>
+      <xdr:rowOff>188639</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -17162,8 +17187,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="23327944" y="12066930"/>
-          <a:ext cx="332069" cy="681101"/>
+          <a:off x="23537153" y="12066931"/>
+          <a:ext cx="296351" cy="694708"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -17290,15 +17315,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>432225</xdr:colOff>
+      <xdr:colOff>473046</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>172188</xdr:rowOff>
+      <xdr:rowOff>172187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>139765</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>175032</xdr:rowOff>
+      <xdr:rowOff>188638</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -17310,8 +17335,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="23327944" y="12745188"/>
-          <a:ext cx="314759" cy="2844"/>
+          <a:off x="23537153" y="12745187"/>
+          <a:ext cx="279041" cy="16451"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -17438,15 +17463,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>432224</xdr:colOff>
+      <xdr:colOff>473045</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>175033</xdr:rowOff>
+      <xdr:rowOff>188639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>148569</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>100446</xdr:rowOff>
+      <xdr:rowOff>100445</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -17458,8 +17483,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="23327943" y="12748033"/>
-          <a:ext cx="323564" cy="687413"/>
+          <a:off x="23537152" y="12761639"/>
+          <a:ext cx="287846" cy="673806"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -19307,13 +19332,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>109573</xdr:colOff>
+      <xdr:colOff>109572</xdr:colOff>
       <xdr:row>174</xdr:row>
       <xdr:rowOff>108164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>8658</xdr:colOff>
+      <xdr:colOff>108856</xdr:colOff>
       <xdr:row>176</xdr:row>
       <xdr:rowOff>62610</xdr:rowOff>
     </xdr:to>
@@ -19324,8 +19349,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10413891" y="33255164"/>
-          <a:ext cx="1111358" cy="335446"/>
+          <a:off x="10519036" y="33255164"/>
+          <a:ext cx="1223927" cy="335446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19370,7 +19395,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>useMagnitude</a:t>
+            <a:t>hasMeasurement</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR">
             <a:effectLst/>
@@ -19383,13 +19408,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>59115</xdr:colOff>
+      <xdr:colOff>109213</xdr:colOff>
       <xdr:row>176</xdr:row>
       <xdr:rowOff>62610</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>291803</xdr:colOff>
+      <xdr:colOff>291801</xdr:colOff>
       <xdr:row>200</xdr:row>
       <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
@@ -19403,8 +19428,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="12432318" y="32127862"/>
-          <a:ext cx="4580828" cy="7506324"/>
+          <a:off x="12605808" y="32115801"/>
+          <a:ext cx="4580828" cy="7530445"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -19436,13 +19461,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>59116</xdr:colOff>
+      <xdr:colOff>109215</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>154991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>395820</xdr:colOff>
+      <xdr:colOff>397930</xdr:colOff>
       <xdr:row>174</xdr:row>
       <xdr:rowOff>108164</xdr:rowOff>
     </xdr:to>
@@ -19456,8 +19481,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="-673604" y="14637329"/>
-          <a:ext cx="30242673" cy="6992998"/>
+          <a:off x="-478211" y="14621703"/>
+          <a:ext cx="30242673" cy="7024250"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -20048,15 +20073,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
+      <xdr:colOff>159883</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>59532</xdr:rowOff>
+      <xdr:rowOff>73139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>432224</xdr:colOff>
+      <xdr:colOff>473045</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>100032</xdr:rowOff>
+      <xdr:rowOff>113639</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20065,8 +20090,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21800343" y="12442032"/>
-          <a:ext cx="1527600" cy="612000"/>
+          <a:off x="21999347" y="12455639"/>
+          <a:ext cx="1537805" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -20095,15 +20120,53 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Measurement Location</a:t>
+            <a:t>Measurement</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Location</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -20112,15 +20175,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>470051</xdr:colOff>
+      <xdr:colOff>470052</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>175032</xdr:rowOff>
+      <xdr:rowOff>186939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>119062</xdr:colOff>
+      <xdr:colOff>159884</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>186938</xdr:rowOff>
+      <xdr:rowOff>188640</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20131,9 +20194,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="21401239" y="12748032"/>
-          <a:ext cx="399104" cy="11906"/>
+        <a:xfrm rot="10800000">
+          <a:off x="21561123" y="12759939"/>
+          <a:ext cx="438225" cy="1701"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -20824,15 +20887,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>574902</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>68038</xdr:rowOff>
+      <xdr:colOff>493258</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>98652</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>40824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20841,8 +20904,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13108781" y="6667501"/>
-          <a:ext cx="1432152" cy="449037"/>
+          <a:off x="13352008" y="5497287"/>
+          <a:ext cx="1442358" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20901,14 +20964,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>574902</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>34020</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>98652</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>6806</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>380450</xdr:colOff>
+      <xdr:colOff>379952</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>74310</xdr:rowOff>
     </xdr:to>
@@ -20922,8 +20985,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14540933" y="6892020"/>
-          <a:ext cx="5270517" cy="802290"/>
+          <a:off x="14794366" y="5721806"/>
+          <a:ext cx="5179872" cy="1972504"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -21458,6 +21521,518 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>421301</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>69694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>320386</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>24140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="355" name="Retângulo 354"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10830765" y="34550194"/>
+          <a:ext cx="1123728" cy="335446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1001">
+          <a:schemeClr val="dk2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>useMagnitude</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>229962</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>89691</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="356" name="Retângulo 355"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6504214" y="34521321"/>
+          <a:ext cx="4135212" cy="620370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Rule:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Component(?C1) ^ ConditionMonitoring(?Tch1) ^ Magnitude(?Mg1) ^ isDetectedWith(?C1, ?Tch1) ^ usedMagnitude(?Tch1, ?Mg1) -&gt; usedMagnitude(?C1, ?Mg1)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>179109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>124680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="361" name="Retângulo 360"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28030714" y="8751609"/>
+          <a:ext cx="1183822" cy="326571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0066FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1001">
+          <a:schemeClr val="dk2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>useCollector</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>327726</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>124680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>564696</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="362" name="Conector em curva 361"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="361" idx="2"/>
+          <a:endCxn id="333" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="22958636" y="6789949"/>
+          <a:ext cx="3375758" cy="7952220"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 81037"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>360043</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>166368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>564697</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>179109</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="363" name="Conector em curva 362"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="361" idx="0"/>
+          <a:endCxn id="332" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="23322803" y="3451787"/>
+          <a:ext cx="2679741" cy="7919904"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>7116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>143187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="381" name="Retângulo 380"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26887714" y="9341616"/>
+          <a:ext cx="1183822" cy="326571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0066FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1001">
+          <a:schemeClr val="dk2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>hasGroup</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>382153</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>143186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>34019</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>164665</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="382" name="Conector em curva 381"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="381" idx="2"/>
+          <a:endCxn id="334" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="23519989" y="6873029"/>
+          <a:ext cx="1164479" cy="6754794"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 176888"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>261392</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>34019</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>7116</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="383" name="Conector em curva 382"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="381" idx="0"/>
+          <a:endCxn id="335" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="23479383" y="5341373"/>
+          <a:ext cx="1124931" cy="6875555"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -21728,8 +22303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Z1:AO461"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Y73" sqref="Y73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AU66" sqref="AU66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OWLPHM Gráfica.xlsx
+++ b/OWLPHM Gráfica.xlsx
@@ -15,6 +15,7 @@
     <sheet name="OntoPHM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -86,11 +87,11 @@
   <colors>
     <mruColors>
       <color rgb="FF660066"/>
+      <color rgb="FF339933"/>
+      <color rgb="FF008000"/>
       <color rgb="FF65FF65"/>
-      <color rgb="FF339933"/>
       <color rgb="FF33CC33"/>
       <color rgb="FF00CC00"/>
-      <color rgb="FF008000"/>
       <color rgb="FF0066FF"/>
       <color rgb="FF0099FF"/>
     </mruColors>
@@ -111,15 +112,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>31297</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>138792</xdr:rowOff>
+      <xdr:colOff>493940</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>84363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>69397</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>14967</xdr:rowOff>
+      <xdr:colOff>532040</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>151038</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -128,7 +129,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31297" y="30618792"/>
+          <a:off x="14577333" y="30183363"/>
           <a:ext cx="1262743" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -249,16 +250,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>420549</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>270871</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>45062</xdr:rowOff>
+      <xdr:rowOff>45063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>112079</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>138791</xdr:rowOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>84363</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -267,10 +268,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14503942" y="10522562"/>
-          <a:ext cx="1528494" cy="20096229"/>
-          <a:chOff x="423393" y="-18052438"/>
-          <a:chExt cx="1521759" cy="20096229"/>
+          <a:off x="14966585" y="10522563"/>
+          <a:ext cx="1065851" cy="19660800"/>
+          <a:chOff x="883998" y="-18052437"/>
+          <a:chExt cx="1061155" cy="19660800"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -283,8 +284,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm rot="10800000" flipV="1">
-            <a:off x="661753" y="-18052438"/>
-            <a:ext cx="1283399" cy="20096229"/>
+            <a:off x="1125052" y="-18052437"/>
+            <a:ext cx="820101" cy="19660800"/>
           </a:xfrm>
           <a:prstGeom prst="curvedConnector2">
             <a:avLst/>
@@ -315,7 +316,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="16200000">
-            <a:off x="145849" y="-25772"/>
+            <a:off x="606454" y="137514"/>
             <a:ext cx="819648" cy="264560"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -356,15 +357,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>118283</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>148318</xdr:rowOff>
+      <xdr:colOff>227141</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>93889</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>238287</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>188818</xdr:rowOff>
+      <xdr:colOff>347145</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>134389</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -373,7 +374,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1955247" y="30628318"/>
+          <a:off x="16147498" y="30192889"/>
           <a:ext cx="1344647" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -420,15 +421,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>120558</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>98652</xdr:rowOff>
+      <xdr:colOff>93344</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>398004</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>139152</xdr:rowOff>
+      <xdr:colOff>370790</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>111938</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -437,7 +438,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1957522" y="39341652"/>
+          <a:off x="16013701" y="41981438"/>
           <a:ext cx="1502089" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -484,15 +485,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>69398</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>73318</xdr:rowOff>
+      <xdr:colOff>532040</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>18889</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>118284</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>76880</xdr:rowOff>
+      <xdr:colOff>227141</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>22451</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -504,8 +505,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1294041" y="30934318"/>
-          <a:ext cx="661207" cy="3562"/>
+          <a:off x="15840076" y="30498889"/>
+          <a:ext cx="307422" cy="3562"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -534,15 +535,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>50349</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>14968</xdr:rowOff>
+      <xdr:colOff>512991</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>151038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>120559</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>23653</xdr:rowOff>
+      <xdr:colOff>93344</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>186938</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -554,8 +555,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="662670" y="31256968"/>
-          <a:ext cx="1294853" cy="8390685"/>
+          <a:off x="15208705" y="30821538"/>
+          <a:ext cx="804996" cy="11465900"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -776,15 +777,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>178029</xdr:colOff>
+      <xdr:colOff>150814</xdr:colOff>
       <xdr:row>201</xdr:row>
       <xdr:rowOff>186937</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>153080</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>188276</xdr:rowOff>
+      <xdr:colOff>153079</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>161062</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -796,8 +797,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3239636" y="38477437"/>
-          <a:ext cx="587373" cy="953839"/>
+          <a:off x="17295814" y="38477437"/>
+          <a:ext cx="614586" cy="3593625"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -826,13 +827,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>178029</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>49528</xdr:rowOff>
+      <xdr:colOff>150814</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>22314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>128582</xdr:colOff>
+      <xdr:colOff>128581</xdr:colOff>
       <xdr:row>230</xdr:row>
       <xdr:rowOff>91685</xdr:rowOff>
     </xdr:to>
@@ -846,8 +847,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3239636" y="39864028"/>
-          <a:ext cx="562875" cy="4042657"/>
+          <a:off x="17295814" y="42503814"/>
+          <a:ext cx="590088" cy="1402871"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -876,13 +877,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>178029</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>49528</xdr:rowOff>
+      <xdr:colOff>150814</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>22314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>101372</xdr:colOff>
+      <xdr:colOff>101371</xdr:colOff>
       <xdr:row>251</xdr:row>
       <xdr:rowOff>146119</xdr:rowOff>
     </xdr:to>
@@ -896,8 +897,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3239636" y="39864028"/>
-          <a:ext cx="535665" cy="8097591"/>
+          <a:off x="17295814" y="42503814"/>
+          <a:ext cx="562878" cy="5457805"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -2869,14 +2870,14 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>89045</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>144277</xdr:rowOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>89853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>373695</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>184777</xdr:rowOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>130353</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2885,8 +2886,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3762974" y="30624277"/>
-          <a:ext cx="1509292" cy="612000"/>
+          <a:off x="17846366" y="30188853"/>
+          <a:ext cx="1509293" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3061,14 +3062,14 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>138908</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>149772</xdr:rowOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>136163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>423557</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>190272</xdr:rowOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>176663</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3077,8 +3078,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5649801" y="32915772"/>
-          <a:ext cx="1781435" cy="612000"/>
+          <a:off x="19733194" y="33854663"/>
+          <a:ext cx="1781434" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3188,15 +3189,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>238287</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>69276</xdr:rowOff>
+      <xdr:colOff>347146</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>14853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>89045</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>73317</xdr:rowOff>
+      <xdr:colOff>89046</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>18889</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3208,8 +3209,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3299894" y="30930276"/>
-          <a:ext cx="463080" cy="4041"/>
+          <a:off x="17492146" y="30494853"/>
+          <a:ext cx="354221" cy="4036"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -3245,8 +3246,8 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>177132</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>43402</xdr:rowOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>179478</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3258,8 +3259,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5051235" y="17932344"/>
-          <a:ext cx="636790" cy="12781558"/>
+          <a:off x="19134628" y="17932344"/>
+          <a:ext cx="636790" cy="12346134"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -3295,8 +3296,8 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>190744</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>43401</xdr:rowOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>179477</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3308,8 +3309,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5051235" y="22806502"/>
-          <a:ext cx="650402" cy="7907399"/>
+          <a:off x="19134628" y="22806502"/>
+          <a:ext cx="650402" cy="7471975"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -5060,8 +5061,8 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>354136</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>43402</xdr:rowOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>179478</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5073,8 +5074,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5051236" y="27472570"/>
-          <a:ext cx="813793" cy="3241332"/>
+          <a:off x="19134629" y="27472570"/>
+          <a:ext cx="813793" cy="2805908"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -5559,14 +5560,14 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>152664</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>95152</xdr:rowOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>40729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>138908</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>74772</xdr:rowOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>61164</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5578,8 +5579,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5051235" y="31146652"/>
-          <a:ext cx="598566" cy="2075120"/>
+          <a:off x="19134628" y="30711229"/>
+          <a:ext cx="598566" cy="3449435"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -9882,13 +9883,13 @@
       <xdr:col>34</xdr:col>
       <xdr:colOff>423558</xdr:colOff>
       <xdr:row>172</xdr:row>
-      <xdr:rowOff>148280</xdr:rowOff>
+      <xdr:rowOff>148281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>173761</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>74771</xdr:rowOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>61163</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9900,8 +9901,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="8655879" y="32914280"/>
-          <a:ext cx="2335561" cy="307491"/>
+          <a:off x="21514629" y="32914281"/>
+          <a:ext cx="2335561" cy="1246382"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -12099,16 +12100,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>469421</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>165192</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>278922</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>110763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>142105</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>119638</xdr:rowOff>
+      <xdr:colOff>563927</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>65209</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12117,8 +12118,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13271021" y="27597192"/>
-          <a:ext cx="891884" cy="335446"/>
+          <a:off x="13749993" y="28685763"/>
+          <a:ext cx="897327" cy="335446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12164,16 +12165,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>305762</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>115264</xdr:colOff>
       <xdr:row>120</xdr:row>
       <xdr:rowOff>162879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>451769</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>165193</xdr:rowOff>
+      <xdr:colOff>450574</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>110764</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12185,8 +12186,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="14550809" y="22189032"/>
-          <a:ext cx="4574314" cy="6242007"/>
+          <a:off x="14290316" y="22931220"/>
+          <a:ext cx="5662885" cy="5846203"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -12216,16 +12217,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>305764</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>119637</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>115265</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>65208</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>400990</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>100646</xdr:rowOff>
+      <xdr:colOff>399794</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>87037</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12237,12 +12238,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="14059822" y="27589779"/>
-          <a:ext cx="5505509" cy="6191226"/>
+          <a:off x="14418454" y="28801412"/>
+          <a:ext cx="5355829" cy="5795422"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 105780"/>
+            <a:gd name="adj1" fmla="val 105942"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -12271,16 +12272,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>434926</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>530176</xdr:colOff>
       <xdr:row>145</xdr:row>
-      <xdr:rowOff>109855</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>106990</xdr:colOff>
+      <xdr:rowOff>69034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>202240</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>64301</xdr:rowOff>
+      <xdr:rowOff>23480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12289,8 +12290,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11327044" y="27732355"/>
-          <a:ext cx="882299" cy="335446"/>
+          <a:off x="12164283" y="27691534"/>
+          <a:ext cx="896707" cy="335446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12336,16 +12337,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>270960</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>366208</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>140844</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>315856</xdr:colOff>
+      <xdr:colOff>315854</xdr:colOff>
       <xdr:row>145</xdr:row>
-      <xdr:rowOff>109855</xdr:rowOff>
+      <xdr:rowOff>69034</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12357,8 +12358,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="11352299" y="18654240"/>
-          <a:ext cx="9494011" cy="8662220"/>
+          <a:off x="11908990" y="18941991"/>
+          <a:ext cx="9453190" cy="8045896"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -12388,16 +12389,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>270958</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>366208</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>64301</xdr:rowOff>
+      <xdr:rowOff>23480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>400495</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>100647</xdr:rowOff>
+      <xdr:colOff>399793</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>87038</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12409,12 +12410,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="13081054" y="26754940"/>
-          <a:ext cx="5370346" cy="7996067"/>
+          <a:off x="13128329" y="27511288"/>
+          <a:ext cx="6350058" cy="7381442"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 105926"/>
+            <a:gd name="adj1" fmla="val 105011"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -12615,16 +12616,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>407243</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>103736</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>66319</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>58182</xdr:rowOff>
+      <xdr:colOff>325600</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>90129</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>596998</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>44575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12633,8 +12634,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11904478" y="28297736"/>
-          <a:ext cx="869312" cy="335446"/>
+          <a:off x="13184350" y="28093629"/>
+          <a:ext cx="883719" cy="335446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12680,16 +12681,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>236781</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>58182</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>155139</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>44574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>291803</xdr:colOff>
+      <xdr:colOff>291802</xdr:colOff>
       <xdr:row>200</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12701,12 +12702,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10623105" y="30349211"/>
-          <a:ext cx="9538256" cy="6106198"/>
+          <a:off x="11272646" y="30782638"/>
+          <a:ext cx="9742363" cy="5035235"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 55522"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -12732,16 +12733,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>236781</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>155140</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>111128</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>451277</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>103736</xdr:rowOff>
+      <xdr:colOff>450575</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>90129</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12753,12 +12754,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="13223284" y="21705978"/>
-          <a:ext cx="5707608" cy="7475908"/>
+          <a:off x="14083785" y="22132554"/>
+          <a:ext cx="5503501" cy="6418650"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 105575"/>
+            <a:gd name="adj1" fmla="val 105782"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -12853,15 +12854,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>272142</xdr:colOff>
+      <xdr:colOff>272140</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>10574</xdr:rowOff>
+      <xdr:rowOff>10575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>281234</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>149771</xdr:rowOff>
+      <xdr:colOff>281232</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>136163</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12873,8 +12874,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="19530933" y="31984377"/>
-          <a:ext cx="1853697" cy="9092"/>
+          <a:off x="19223071" y="32453823"/>
+          <a:ext cx="2792588" cy="9092"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -13132,15 +13133,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>312963</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:colOff>122463</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13149,7 +13150,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="571499" y="39283822"/>
+          <a:off x="14464392" y="42209357"/>
           <a:ext cx="966107" cy="299357"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13197,15 +13198,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>442231</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:colOff>251731</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>22313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>340533</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>49527</xdr:rowOff>
+      <xdr:colOff>313319</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13216,13 +13217,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1475601" y="39162130"/>
-          <a:ext cx="280848" cy="1122945"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="15588110" y="41863148"/>
+          <a:ext cx="4901" cy="1286231"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 213309"/>
+            <a:gd name="adj1" fmla="val -6393063"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -13249,15 +13250,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>442231</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>40822</xdr:rowOff>
+      <xdr:colOff>251731</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>161064</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>340533</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>188277</xdr:rowOff>
+      <xdr:colOff>313319</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13268,13 +13269,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1542297" y="38796077"/>
-          <a:ext cx="147455" cy="1122945"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="15521414" y="41497095"/>
+          <a:ext cx="138294" cy="1286231"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -155030"/>
+            <a:gd name="adj1" fmla="val 330108"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -13677,16 +13678,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>15309</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>127567</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>369095</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>5104</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>382701</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>73138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>124166</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>141175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13695,8 +13696,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17624653" y="40894567"/>
-          <a:ext cx="961005" cy="449037"/>
+          <a:off x="16303058" y="44078638"/>
+          <a:ext cx="966108" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13755,32 +13756,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>339039</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>49528</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>15309</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>161587</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>232067</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>111938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>253433</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>73138</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="302" name="Conector em curva 301"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="293" idx="1"/>
-          <a:endCxn id="16" idx="3"/>
+          <a:stCxn id="293" idx="0"/>
+          <a:endCxn id="16" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="16126727" y="39864028"/>
-          <a:ext cx="1497926" cy="1255059"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="16032829" y="43325355"/>
+          <a:ext cx="1485200" cy="21366"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
           <a:tailEnd type="triangle"/>
@@ -13805,16 +13808,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>503464</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>52728</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>11339</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>68603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>435429</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>120765</xdr:rowOff>
+      <xdr:colOff>546554</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>136640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13823,8 +13826,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18112808" y="14149728"/>
-          <a:ext cx="1146402" cy="449037"/>
+          <a:off x="18108839" y="15308603"/>
+          <a:ext cx="1138465" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13884,15 +13887,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>435429</xdr:colOff>
+      <xdr:colOff>546554</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>111938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>327727</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>86747</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>102622</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13904,8 +13907,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="19259210" y="13065938"/>
-          <a:ext cx="1249611" cy="1308309"/>
+          <a:off x="19247304" y="13065938"/>
+          <a:ext cx="1130548" cy="2467184"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -14189,16 +14192,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>408214</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14207,7 +14210,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="40848642"/>
+          <a:off x="14355536" y="43951071"/>
           <a:ext cx="966107" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14268,28 +14271,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>408214</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>49527</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>340534</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>115661</xdr:rowOff>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>111938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>232067</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>170090</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="315" name="Conector em curva 314"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="313" idx="3"/>
-          <a:endCxn id="16" idx="3"/>
+          <a:endCxn id="16" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1632857" y="39864027"/>
-          <a:ext cx="544641" cy="1209134"/>
+          <a:off x="15321643" y="42593438"/>
+          <a:ext cx="1443103" cy="1582152"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -14317,16 +14320,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>384403</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>133803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>328273</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>11340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14335,21 +14338,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11314341" y="14246678"/>
-          <a:ext cx="1158307" cy="449037"/>
+          <a:off x="9433153" y="16326303"/>
+          <a:ext cx="1150370" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
+          <a:srgbClr val="339933"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:srgbClr val="660066"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -14406,7 +14406,7 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>328273</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>111938</xdr:rowOff>
@@ -14414,8 +14414,8 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>327727</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>183697</xdr:rowOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>167822</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14427,14 +14427,14 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12472648" y="13065938"/>
-          <a:ext cx="8036173" cy="1405259"/>
+          <a:off x="10583523" y="13065938"/>
+          <a:ext cx="9794329" cy="3484884"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="28575">
-          <a:prstDash val="sysDash"/>
+          <a:prstDash val="solid"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -14458,15 +14458,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>76539</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>112258</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>472848</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>180295</xdr:rowOff>
+      <xdr:colOff>378164</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>175758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>171223</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>53295</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14475,8 +14475,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21007727" y="14209258"/>
-          <a:ext cx="1146402" cy="449037"/>
+          <a:off x="21174414" y="14844258"/>
+          <a:ext cx="1142434" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14513,7 +14513,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>hasLocation</a:t>
+            <a:t>hasLocationID</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -14542,9 +14542,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>76539</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>146278</xdr:rowOff>
+      <xdr:colOff>378164</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>19278</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14556,8 +14556,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="20508821" y="13065939"/>
-          <a:ext cx="498906" cy="1367839"/>
+          <a:off x="20377852" y="13065939"/>
+          <a:ext cx="796562" cy="2002839"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -14843,16 +14843,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>82210</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>106020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>18710</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>185395</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>569798</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>62932</xdr:rowOff>
+      <xdr:colOff>30048</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>174057</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14861,21 +14861,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11555866" y="13139395"/>
-          <a:ext cx="1158307" cy="449037"/>
+          <a:off x="10337460" y="13060020"/>
+          <a:ext cx="1154338" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
+          <a:srgbClr val="339933"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:srgbClr val="660066"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -14932,16 +14929,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>569798</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>30048</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>111938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>327727</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>28914</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>140039</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14953,14 +14950,14 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12714173" y="13065938"/>
-          <a:ext cx="7794648" cy="297976"/>
+          <a:off x="11491798" y="13065938"/>
+          <a:ext cx="8886054" cy="218601"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="28575">
-          <a:prstDash val="sysDash"/>
+          <a:prstDash val="solid"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -16598,9 +16595,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>333671</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>96656</xdr:rowOff>
+      <xdr:colOff>47922</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>120467</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="264560" cy="819648"/>
     <xdr:sp macro="" textlink="">
@@ -16609,8 +16606,8 @@
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16839378">
-          <a:off x="16588806" y="4755700"/>
+        <a:xfrm rot="17313028">
+          <a:off x="16486753" y="4589011"/>
           <a:ext cx="819648" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17748,14 +17745,14 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>423558</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>74772</xdr:rowOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>61164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>92117</xdr:colOff>
       <xdr:row>180</xdr:row>
-      <xdr:rowOff>71238</xdr:rowOff>
+      <xdr:rowOff>71239</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -17767,8 +17764,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="8655879" y="33221772"/>
-          <a:ext cx="2253917" cy="1139466"/>
+          <a:off x="21514629" y="34160664"/>
+          <a:ext cx="2253917" cy="200575"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -17800,15 +17797,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>105764</xdr:colOff>
+      <xdr:colOff>160193</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>35563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>79170</xdr:colOff>
       <xdr:row>155</xdr:row>
-      <xdr:rowOff>21956</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>24741</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>89993</xdr:rowOff>
+      <xdr:rowOff>103600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17817,8 +17814,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15893452" y="29549456"/>
-          <a:ext cx="1133414" cy="449037"/>
+          <a:off x="16080550" y="29182063"/>
+          <a:ext cx="1143620" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17877,16 +17874,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>493186</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>55975</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>347116</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>69582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>105764</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>41751</xdr:rowOff>
+      <xdr:colOff>160193</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>177822</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -17898,8 +17895,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="15066436" y="29773975"/>
-          <a:ext cx="827016" cy="938276"/>
+          <a:off x="15655152" y="29406582"/>
+          <a:ext cx="425398" cy="870240"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -18281,16 +18278,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>165758</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>139439</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>567015</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>492328</xdr:colOff>
       <xdr:row>184</xdr:row>
-      <xdr:rowOff>16976</xdr:rowOff>
+      <xdr:rowOff>16975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>417334</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>85012</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18299,8 +18296,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20346852" y="34619939"/>
-          <a:ext cx="1151351" cy="449037"/>
+          <a:off x="26713292" y="35068975"/>
+          <a:ext cx="1149649" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18360,33 +18357,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>281234</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>190272</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>741435</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>139439</xdr:rowOff>
+      <xdr:colOff>281233</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>176664</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>492329</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>50995</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="319" name="Conector em curva 318"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="318" idx="0"/>
+          <a:stCxn id="318" idx="1"/>
           <a:endCxn id="119" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="20146345" y="33843755"/>
-          <a:ext cx="1092167" cy="460201"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:xfrm rot="10800000">
+          <a:off x="20623912" y="34466664"/>
+          <a:ext cx="6089381" cy="826831"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="28575">
           <a:tailEnd type="triangle"/>
@@ -18506,15 +18501,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>229503</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>979</xdr:rowOff>
+      <xdr:colOff>256717</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>28194</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>520352</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>145925</xdr:rowOff>
+      <xdr:colOff>547566</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>173140</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18523,8 +18518,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13031103" y="38672479"/>
-          <a:ext cx="900449" cy="335446"/>
+          <a:off x="13115467" y="41938194"/>
+          <a:ext cx="903170" cy="335446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18572,33 +18567,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>520352</xdr:colOff>
+      <xdr:colOff>547566</xdr:colOff>
       <xdr:row>200</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>291803</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>168702</xdr:rowOff>
+      <xdr:rowOff>161063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>373055</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>5417</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="342" name="Conector em curva 341"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="341" idx="3"/>
-          <a:endCxn id="26" idx="0"/>
+          <a:endCxn id="26" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13931552" y="38171438"/>
-          <a:ext cx="4648251" cy="668764"/>
+          <a:off x="14018637" y="38261063"/>
+          <a:ext cx="4111739" cy="3844854"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 41950"/>
-            <a:gd name="adj2" fmla="val 134182"/>
+            <a:gd name="adj1" fmla="val 47325"/>
+            <a:gd name="adj2" fmla="val 108277"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -18626,15 +18621,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>70127</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>100648</xdr:rowOff>
+      <xdr:colOff>95980</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>87039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>400988</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>980</xdr:rowOff>
+      <xdr:colOff>399792</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>28195</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -18646,12 +18641,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="14077592" y="32841883"/>
-          <a:ext cx="5234332" cy="6426861"/>
+          <a:off x="12999987" y="34944103"/>
+          <a:ext cx="7561156" cy="6427027"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 69976"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -18682,15 +18677,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>450056</xdr:colOff>
-      <xdr:row>203</xdr:row>
-      <xdr:rowOff>680</xdr:rowOff>
+      <xdr:colOff>463664</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>142196</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>55107</xdr:rowOff>
+      <xdr:colOff>155804</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>55106</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18699,8 +18694,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9594056" y="38672180"/>
-          <a:ext cx="3349740" cy="625927"/>
+          <a:off x="9648485" y="41910679"/>
+          <a:ext cx="3366069" cy="625927"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18774,16 +18769,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>188000</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>12251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>24715</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>107500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>445293</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>61946</xdr:rowOff>
+      <xdr:colOff>608578</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>157197</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18792,8 +18787,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12826315" y="37064500"/>
-          <a:ext cx="1030178" cy="335446"/>
+          <a:off x="12434429" y="41160251"/>
+          <a:ext cx="1032899" cy="335446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18851,32 +18846,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>539803</xdr:colOff>
-      <xdr:row>196</xdr:row>
-      <xdr:rowOff>61946</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>291802</xdr:colOff>
+      <xdr:colOff>92128</xdr:colOff>
       <xdr:row>200</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:rowOff>161063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>373054</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>157197</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="421" name="Conector em curva 420"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="420" idx="2"/>
-          <a:endCxn id="26" idx="0"/>
+          <a:endCxn id="26" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="15574857" y="35166492"/>
-          <a:ext cx="771492" cy="5238399"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="13923310" y="37288631"/>
+          <a:ext cx="3234634" cy="5179497"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector5">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val -7067"/>
+            <a:gd name="adj2" fmla="val 52862"/>
+            <a:gd name="adj3" fmla="val 107067"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -18904,15 +18901,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>539804</xdr:colOff>
+      <xdr:colOff>92129</xdr:colOff>
       <xdr:row>145</xdr:row>
-      <xdr:rowOff>156070</xdr:rowOff>
+      <xdr:rowOff>156071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>306335</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>107500</xdr:rowOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>12252</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -18924,12 +18921,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="12310742" y="28809232"/>
-          <a:ext cx="9285930" cy="7224606"/>
+          <a:off x="10109106" y="30620344"/>
+          <a:ext cx="13381681" cy="7698135"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 60067"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -18959,16 +18956,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>126251</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>455839</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>180680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>575583</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>180678</xdr:rowOff>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>44607</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18977,8 +18974,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8867775" y="37083251"/>
-          <a:ext cx="3899808" cy="625927"/>
+          <a:off x="8416018" y="41138180"/>
+          <a:ext cx="3916137" cy="625927"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19035,18 +19032,15 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Component (?C1) ^ PotentialCause (?PC1) ^ Symptom (?Sy1) ^ </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>hasCause (?C1, ?PC1) ^ hasSymptom (?PC1, ?Sy1) -&gt; hasSymptom (?C1, ?Sy1)</a:t>
-          </a:r>
+            <a:t>hasCause(?C1, ?PC1) ^ Component(?C1) ^ Symptom(?Sy1) ^ PotentialCause(?PC1) ^ hasSymptom(?PC1, ?Sy1) -&gt; hasSymptom(?C1, ?Sy1)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -19055,15 +19049,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>586689</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>141929</xdr:rowOff>
+      <xdr:colOff>124046</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>5858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>96375</xdr:rowOff>
+      <xdr:colOff>23131</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>150804</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19072,8 +19066,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12169089" y="35765429"/>
-          <a:ext cx="1118285" cy="335446"/>
+          <a:off x="11758153" y="40391858"/>
+          <a:ext cx="1123728" cy="335446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19131,32 +19125,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>536232</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>96374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>291803</xdr:colOff>
+      <xdr:colOff>73587</xdr:colOff>
       <xdr:row>200</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>161063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>373054</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>150804</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="444" name="Conector em curva 443"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="443" idx="2"/>
-          <a:endCxn id="26" idx="0"/>
+          <a:endCxn id="26" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="14618736" y="34210370"/>
-          <a:ext cx="2070563" cy="5851571"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="13992075" y="36589004"/>
+          <a:ext cx="2466241" cy="5810359"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector5">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val -9269"/>
+            <a:gd name="adj2" fmla="val 52942"/>
+            <a:gd name="adj3" fmla="val 109269"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -19184,15 +19180,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>536232</xdr:colOff>
+      <xdr:colOff>73588</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>154991</xdr:rowOff>
+      <xdr:rowOff>154992</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>397132</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>141929</xdr:rowOff>
+      <xdr:colOff>397929</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>5859</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -19204,8 +19200,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="-974587" y="16715310"/>
-          <a:ext cx="32752938" cy="5347300"/>
+          <a:off x="-3452050" y="18784559"/>
+          <a:ext cx="37379367" cy="5835233"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -19239,16 +19235,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>187</xdr:row>
-      <xdr:rowOff>113056</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>159204</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>167485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>470808</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:colOff>8165</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>25855</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19257,8 +19253,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7934325" y="35736556"/>
-          <a:ext cx="4118883" cy="620370"/>
+          <a:off x="7507061" y="40362985"/>
+          <a:ext cx="4135211" cy="620370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19315,7 +19311,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Component(?C1) ^ Symptom(?Sy1) ^ ConditionMonitoring (?Tch1) ^ hasSymptom(?C1, ?Sy1) ^ isDetectedWith (?Sy1, ?Tch1) -&gt; isDetectedWith (?C1, ?Tch1)</a:t>
+            <a:t>Component(?C1) ^ Symptom(?Sy1) ^ ConditionMonitoring(?Tch1) ^ hasSymptom(?C1, ?Sy1) ^ isDetectedWith(?Sy1, ?Tch1) -&gt; isDetectedWith(?C1, ?Tch1)</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100">
             <a:solidFill>
@@ -19332,15 +19328,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>109572</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>108164</xdr:rowOff>
+      <xdr:colOff>531393</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>94556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>108856</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>62610</xdr:rowOff>
+      <xdr:colOff>530677</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>49002</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19349,7 +19345,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10519036" y="33255164"/>
+          <a:off x="10940857" y="39528056"/>
           <a:ext cx="1223927" cy="335446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19408,32 +19404,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>109213</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>62610</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>291801</xdr:colOff>
+      <xdr:colOff>531034</xdr:colOff>
       <xdr:row>200</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:rowOff>161063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>373054</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>49002</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="475" name="Conector em curva 474"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="474" idx="2"/>
-          <a:endCxn id="26" idx="0"/>
+          <a:endCxn id="26" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="12605808" y="32115801"/>
-          <a:ext cx="4580828" cy="7530445"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="14040378" y="35773505"/>
+          <a:ext cx="1602439" cy="6577555"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector5">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val -14266"/>
+            <a:gd name="adj2" fmla="val 52980"/>
+            <a:gd name="adj3" fmla="val 114266"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -19461,32 +19459,32 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>109215</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>154991</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>397930</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>108164</xdr:rowOff>
+      <xdr:colOff>531036</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>161063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>446288</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>94556</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="476" name="Conector em curva 475"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="474" idx="0"/>
-          <a:endCxn id="292" idx="3"/>
+          <a:endCxn id="333" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="-478211" y="14621703"/>
-          <a:ext cx="30242673" cy="7024250"/>
+          <a:off x="2304451" y="21791934"/>
+          <a:ext cx="26984493" cy="8487752"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 101179"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -19517,15 +19515,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>69272</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>79291</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>530555</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>128161</xdr:rowOff>
+      <xdr:colOff>518308</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>52077</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>367270</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>100947</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19534,8 +19532,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6130636" y="33226291"/>
-          <a:ext cx="4098101" cy="620370"/>
+          <a:off x="6641522" y="39485577"/>
+          <a:ext cx="4135212" cy="620370"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19592,7 +19590,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Component(?C1) ^ ConditionMonitoring(?Tch1) ^ Magnitude(?Mg1) ^ isDetectedWith(?C1, ?Tch1) ^ usedMagnitude(?Tch1, ?Mg1) -&gt; usedMagnitude(?C1, ?Mg1)</a:t>
+            <a:t>Component(?C1) ^ ConditionMonitoring(?Tch1) ^ VibrationMeasurement(?M1) ^ isDetectedWith(?C1, ?Tch1) ^ hasMeasurement(?Tch1, ?M1) -&gt; hasMeasurement(?C1, ?M1)</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100">
             <a:solidFill>
@@ -20886,16 +20884,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>493258</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>163287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>98652</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>40824</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>574901</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>136074</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20904,7 +20902,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13352008" y="5497287"/>
+          <a:off x="19475222" y="6545037"/>
           <a:ext cx="1442358" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20964,32 +20962,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>98652</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>6806</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>379952</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>74310</xdr:rowOff>
+      <xdr:colOff>602115</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>136073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>261391</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>175184</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="345" name="Conector em curva 344"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="344" idx="3"/>
-          <a:endCxn id="335" idx="1"/>
+          <a:stCxn id="344" idx="2"/>
+          <a:endCxn id="335" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14794366" y="5721806"/>
-          <a:ext cx="5179872" cy="1972504"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="20094930" y="7095544"/>
+          <a:ext cx="610611" cy="407669"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
           <a:tailEnd type="triangle"/>
@@ -21014,16 +21014,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>574903</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>8506</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>293688</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>511403</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>103756</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21032,21 +21032,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13108782" y="7560469"/>
-          <a:ext cx="1432152" cy="449037"/>
+          <a:off x="11152188" y="8798719"/>
+          <a:ext cx="1424215" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
+          <a:srgbClr val="339933"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:srgbClr val="660066"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -21095,38 +21092,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>574903</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>74310</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>380450</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>164988</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>511403</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>175185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>261392</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>69738</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="349" name="Conector em curva 348"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="346" idx="3"/>
-          <a:endCxn id="335" idx="1"/>
+          <a:endCxn id="335" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14540934" y="7694310"/>
-          <a:ext cx="5270516" cy="90678"/>
+          <a:off x="12576403" y="7604685"/>
+          <a:ext cx="7735114" cy="1418553"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 47520"/>
-            <a:gd name="adj2" fmla="val 499701"/>
+            <a:gd name="adj1" fmla="val 44257"/>
+            <a:gd name="adj2" fmla="val 116115"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
-          <a:prstDash val="sysDash"/>
+          <a:prstDash val="solid"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -21149,16 +21146,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>59532</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>270783</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>377032</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21167,8 +21164,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8560595" y="7572374"/>
-          <a:ext cx="4461782" cy="2000251"/>
+          <a:off x="6409532" y="7842249"/>
+          <a:ext cx="4655343" cy="571501"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21227,12 +21224,89 @@
             </a:rPr>
             <a:t>Group3(?Gp3) ^ hasZone(?Gp3, "Good") -&gt; hasVelocity(?Gp3, "greater than or equal 0 and less than or equal 2.3")</a:t>
           </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>123032</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>270781</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="351" name="Retângulo 350"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4885531" y="17458532"/>
+          <a:ext cx="4434000" cy="511968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Rule: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>VibrationMeasurement(?M1) ^ hasCurrentValue(?M1, ?D) ^ swrlb:greaterThan(?D, 7.1) -&gt; hasHealth(?M1, "Alarm") </a:t>
+          </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100">
             <a:solidFill>
-              <a:schemeClr val="dk1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
@@ -21240,6 +21314,54 @@
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>43656</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>254906</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="352" name="Retângulo 351"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4869656" y="15204282"/>
+          <a:ext cx="4434000" cy="690562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -21250,10 +21372,1408 @@
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Rule: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>VibrationMeasurement(?M1) ^ hasCurrentValue(?M1, ?A) ^ swrlb:greaterThanOrEqual(?A, 0) ^ swrlb:lessThanOrEqual(?A, 2.3) -&gt; hasHealth(?M1, "Good") </a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47105</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>110515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>565316</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>64961</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="355" name="Retângulo 354"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9953105" y="38782015"/>
+          <a:ext cx="1137336" cy="335446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1001">
+          <a:schemeClr val="dk2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>useCollector</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83911</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>536123</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>121441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="356" name="Retângulo 355"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5513161" y="38744071"/>
+          <a:ext cx="4071712" cy="620370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Rule:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Rule: </a:t>
+            <a:t>Component(?C1) ^ VibrationMeasurement(?M1) ^ VibrationCollector(?T1) ^ hasMeasurement(?C1, ?M1) ^ useCollector(?M1, ?T1) -&gt; useCollector(?C1, ?T1)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>561294</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>131485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>510948</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>77056</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="361" name="Retângulo 360"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28326669" y="10799485"/>
+          <a:ext cx="1187904" cy="326571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0066FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1001">
+          <a:schemeClr val="dk2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>useCollector</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>327727</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>77056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>536121</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="362" name="Conector em curva 361"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="361" idx="2"/>
+          <a:endCxn id="333" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="24247233" y="7780550"/>
+          <a:ext cx="1327882" cy="8018894"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>360044</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>125868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>536122</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>131485</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="363" name="Conector em curva 362"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="361" idx="0"/>
+          <a:endCxn id="332" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="22257524" y="4136388"/>
+          <a:ext cx="5339617" cy="7986578"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 113200"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>7116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>143187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="381" name="Retângulo 380"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26887714" y="9341616"/>
+          <a:ext cx="1183822" cy="326571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0066FF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1001">
+          <a:schemeClr val="dk2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>hasGroup</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>382153</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>143186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>34019</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>164665</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="382" name="Conector em curva 381"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="381" idx="2"/>
+          <a:endCxn id="334" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="23519989" y="6873029"/>
+          <a:ext cx="1164479" cy="6754794"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 176888"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>261392</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>34019</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>7116</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="383" name="Conector em curva 382"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="381" idx="0"/>
+          <a:endCxn id="335" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="23479383" y="5341373"/>
+          <a:ext cx="1124931" cy="6875555"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>47811</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>112452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>585138</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>180489</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="357" name="Retângulo 356"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26268775" y="33068952"/>
+          <a:ext cx="1149649" cy="449037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="339933"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1001">
+          <a:schemeClr val="dk2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>hasFailureValue</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>xsd:decimal</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>281232</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>146471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>47811</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>136163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="360" name="Conector em curva 359"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="357" idx="1"/>
+          <a:endCxn id="119" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="20623911" y="33293471"/>
+          <a:ext cx="5644864" cy="561192"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>615773</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>24993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>482589</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>110515</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="411" name="Conector em curva 410"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="355" idx="0"/>
+          <a:endCxn id="332" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="-1208080" y="17279346"/>
+          <a:ext cx="33232522" cy="9772816"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100958"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>4585</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>291802</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>64961</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="426" name="Conector em curva 425"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="355" idx="2"/>
+          <a:endCxn id="26" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="13851557" y="34579716"/>
+          <a:ext cx="946023" cy="8129467"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -24164"/>
+            <a:gd name="adj2" fmla="val 48885"/>
+            <a:gd name="adj3" fmla="val 124164"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>117272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>359461</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="427" name="Retângulo 426"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8890000" y="38026772"/>
+          <a:ext cx="1121461" cy="335446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1001">
+          <a:schemeClr val="dk2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>useMagnitude</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>401982</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>23291</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>500050</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>117272</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="430" name="Conector em curva 429"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="427" idx="0"/>
+          <a:endCxn id="334" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="769150" y="18991873"/>
+          <a:ext cx="27716481" cy="10353318"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 101148"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>401980</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>161063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>370397</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="440" name="Conector em curva 439"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="427" idx="2"/>
+          <a:endCxn id="26" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="13607111" y="34104682"/>
+          <a:ext cx="101155" cy="8413917"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -225990"/>
+            <a:gd name="adj2" fmla="val 52041"/>
+            <a:gd name="adj3" fmla="val 325990"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>356962</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>112370</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="441" name="Retângulo 440"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4730750" y="37973000"/>
+          <a:ext cx="4071712" cy="620370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Rule:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Component(?C1) ^ VibrationCollector(?T1) ^ VibrationMagnitude(?M1) ^ useCollector(?C1, ?T1) ^ useMagnitude(?T1, ?Mg1) -&gt; useMagnitude(?C1, ?Mg1)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>157481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>216586</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>111927</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="442" name="Retângulo 441"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8143875" y="37304981"/>
+          <a:ext cx="1121461" cy="335446"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1001">
+          <a:schemeClr val="dk2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>hasGroup</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>259107</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>126060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>379289</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>157481</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="447" name="Conector em curva 446"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="442" idx="0"/>
+          <a:endCxn id="335" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="-395013" y="17226680"/>
+          <a:ext cx="29177921" cy="10978682"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 67519"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="660066"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>259106</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>111926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>291803</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="448" name="Conector em curva 447"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="442" idx="2"/>
+          <a:endCxn id="26" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="13281449" y="33063583"/>
+          <a:ext cx="531011" cy="9684697"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198212</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>1245</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="449" name="Retângulo 448"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3968750" y="37290375"/>
+          <a:ext cx="4071712" cy="620370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Rule:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Component(?C1) ^ VibrationMagnitude(?Mg1) ^ VibrationZoneBoundary(?Z1) ^ useMagnitude(?C1, ?Mg1) ^ hasGroup(?Mg1, ?Z1) -&gt; hasGroup(?C1, ?Z1)</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>402432</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>120649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="450" name="Retângulo 449"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6434932" y="8502649"/>
+          <a:ext cx="4629943" cy="571501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Rule:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100">
@@ -21267,19 +22787,62 @@
             </a:rPr>
             <a:t>Group3(?Gp3) ^ hasZone(?Gp3, "Satisfactory") -&gt; hasVelocity(?Gp3, "greater than 2.3 and less than or equal 4.5")</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr lang="pt-BR" sz="1100">
             <a:solidFill>
-              <a:schemeClr val="dk1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-            <a:effectLst/>
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="+mn-ea"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>216693</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>79376</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="451" name="Retângulo 450"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6445250" y="9223375"/>
+          <a:ext cx="4629943" cy="571501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -21290,10 +22853,19 @@
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Rule: </a:t>
+            <a:t>Rule:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100">
@@ -21307,19 +22879,62 @@
             </a:rPr>
             <a:t>Group3(?Gp3) ^ hasZone(?Gp3, "Alert") -&gt; hasVelocity(?Gp3, "greater than 4.5 and less than or equal 7.1")</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr lang="pt-BR" sz="1100">
             <a:solidFill>
-              <a:schemeClr val="dk1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-            <a:effectLst/>
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:ea typeface="+mn-ea"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>232568</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="452" name="Retângulo 451"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6461125" y="9921875"/>
+          <a:ext cx="4629943" cy="571501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -21330,10 +22945,19 @@
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Rule: </a:t>
+            <a:t>Rule:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100">
@@ -21361,26 +22985,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>154781</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>11907</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>366031</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>258875</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="351" name="Retângulo 350"/>
+        <xdr:cNvPr id="453" name="Retângulo 452"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6834187" y="13156407"/>
-          <a:ext cx="4461782" cy="690562"/>
+          <a:off x="4873625" y="15938500"/>
+          <a:ext cx="4434000" cy="690562"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21415,7 +23039,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Rule:</a:t>
+            <a:t>Rule: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100">
@@ -21425,11 +23049,11 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t>VibrationMeasurement(?M1) ^ hasCurrentValue(?M1, ?B) ^ swrlb:greaterThan(?B, 2.3) ^ swrlb:lessThanOrEqual(?B, 4.5) -&gt; hasHealth(?M1, "Satisfactory")</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100">
             <a:solidFill>
-              <a:schemeClr val="dk1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
@@ -21443,26 +23067,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>154782</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>223156</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>274750</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="352" name="Retângulo 351"/>
+        <xdr:cNvPr id="454" name="Retângulo 453"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6691312" y="14251782"/>
-          <a:ext cx="4461782" cy="690562"/>
+          <a:off x="4889500" y="16700500"/>
+          <a:ext cx="4434000" cy="690562"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21497,7 +23121,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Rule:</a:t>
+            <a:t>Rule: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100">
@@ -21507,11 +23131,11 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t>VibrationMeasurement(?M1) ^ hasCurrentValue(?M1, ?C) ^ swrlb:greaterThan(?C, 4.5) ^ swrlb:lessThanOrEqual(?C, 7.1) -&gt; hasHealth(?M1, "Alert")</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100">
             <a:solidFill>
-              <a:schemeClr val="dk1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
@@ -21525,102 +23149,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>421301</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>69694</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>320386</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>24140</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>528750</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="355" name="Retângulo 354"/>
+        <xdr:cNvPr id="458" name="Retângulo 457"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10830765" y="34550194"/>
-          <a:ext cx="1123728" cy="335446"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1001">
-          <a:schemeClr val="dk2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>useMagnitude</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>181</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>229962</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>89691</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="356" name="Retângulo 355"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6504214" y="34521321"/>
-          <a:ext cx="4135212" cy="620370"/>
+          <a:off x="5746750" y="14144624"/>
+          <a:ext cx="4434000" cy="682625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -21655,7 +23203,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Rule:</a:t>
+            <a:t>Rule: </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100">
@@ -21665,21 +23213,697 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
+            <a:t>hasHealth(?M1, ?D) ^ swrlb:equal(?D, "Alarm") ^ VibrationMeasurement(?M1) -&gt; hasWarning(?M1, "Turn off equipment")</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>512875</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="459" name="Retângulo 458"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5730875" y="11890375"/>
+          <a:ext cx="4434000" cy="690562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Rule: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>VibrationMeasurement(?M1) ^ hasHealth(?M1, ?A) ^ swrlb:equal(?A, "Good") -&gt; hasWarning(?M1, "Collect new data in 3 months")</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>305594</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>51593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>516844</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>170655</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="460" name="Retângulo 459"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5734844" y="12624593"/>
+          <a:ext cx="4434000" cy="690562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Rule: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>hasHealth(?M1, ?B) ^ VibrationMeasurement(?M1) ^ swrlb:equal(?B, "Satisfactory") -&gt; hasWarning(?M1, "Collect new data in 1 months")</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>321469</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>51593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>532719</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>170655</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="461" name="Retângulo 460"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5750719" y="13386593"/>
+          <a:ext cx="4434000" cy="690562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Rule: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>hasHealth(?M1, ?C) ^ swrlb:equal(?C, "Alert") ^ VibrationMeasurement(?M1) -&gt; hasWarning(?M1, "Schedule Condition-based Maintenance")</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>51593</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>72259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="462" name="Retângulo 461"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="22510750"/>
+          <a:ext cx="4433093" cy="2707509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Instances of class to create rules</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR" sz="1400" b="1" u="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>FailureMode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="0" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Component(?C1) ^ ConditionMonitoring(?Tch1) ^ Magnitude(?Mg1) ^ isDetectedWith(?C1, ?Tch1) ^ usedMagnitude(?Tch1, ?Mg1) -&gt; usedMagnitude(?C1, ?Mg1)</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:t>?FM1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Component</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="0" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>C1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>PotencialCause</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="0" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>?PC1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Symptom</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="0" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>?Sy1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ConditionMonitoring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="0" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>?Tch1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>VibrationMeasurement</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="0" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>?M1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>VibrationCollector</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="0" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>?T1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>VibrationMagnitude</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="0" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>?Mg1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>VibrationZoneBoundary</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="0" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>?Z1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Group3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="0" u="none">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1" u="none">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>?Gp3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1200" b="0" u="none">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -21693,32 +23917,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>592095</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>71632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>585107</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>179109</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>124680</xdr:rowOff>
+      <xdr:colOff>517070</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>139669</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="361" name="Retângulo 360"/>
+        <xdr:cNvPr id="368" name="Retângulo 367"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28030714" y="8751609"/>
-          <a:ext cx="1183822" cy="326571"/>
+          <a:off x="26200738" y="34552132"/>
+          <a:ext cx="1761939" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="0066FF"/>
+          <a:srgbClr val="339933"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -21749,7 +23973,28 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>useCollector</a:t>
+            <a:t>hasMeasurementDirection</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>xs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>d:string</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -21759,33 +24004,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>327726</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>124680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>564696</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:colOff>281233</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>176663</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>592096</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>105651</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="362" name="Conector em curva 361"/>
+        <xdr:cNvPr id="369" name="Conector em curva 368"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="361" idx="2"/>
-          <a:endCxn id="333" idx="0"/>
+          <a:stCxn id="368" idx="1"/>
+          <a:endCxn id="119" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="22958636" y="6789949"/>
-          <a:ext cx="3375758" cy="7952220"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 81037"/>
-          </a:avLst>
+        <a:xfrm rot="10800000">
+          <a:off x="20623912" y="34466663"/>
+          <a:ext cx="5576827" cy="309988"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="28575">
           <a:tailEnd type="triangle"/>
@@ -21810,87 +24053,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>360043</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>166368</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>564697</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>179109</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="363" name="Conector em curva 362"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="361" idx="0"/>
-          <a:endCxn id="332" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="23322803" y="3451787"/>
-          <a:ext cx="2679741" cy="7919904"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="660066"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>7116</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>143187</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>510451</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>180488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>435426</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>58025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="381" name="Retângulo 380"/>
+        <xdr:cNvPr id="372" name="Retângulo 371"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26887714" y="9341616"/>
-          <a:ext cx="1183822" cy="326571"/>
+          <a:off x="26119094" y="33708488"/>
+          <a:ext cx="1761939" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="0066FF"/>
+          <a:srgbClr val="339933"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -21921,7 +24109,31 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100"/>
-            <a:t>hasGroup</a:t>
+            <a:t>hasFrequencySpectrum</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>xs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="660066"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>d:string</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -21931,32 +24143,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>382153</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>143186</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>34019</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>164665</xdr:rowOff>
+      <xdr:colOff>281233</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>136163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>510452</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>24007</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="382" name="Conector em curva 381"/>
+        <xdr:cNvPr id="373" name="Conector em curva 372"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="381" idx="2"/>
-          <a:endCxn id="334" idx="4"/>
+          <a:stCxn id="372" idx="1"/>
+          <a:endCxn id="119" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="23519989" y="6873029"/>
-          <a:ext cx="1164479" cy="6754794"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
+        <a:xfrm rot="10800000">
+          <a:off x="20623912" y="33854663"/>
+          <a:ext cx="5495183" cy="78344"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 176888"/>
+            <a:gd name="adj1" fmla="val 41895"/>
+            <a:gd name="adj2" fmla="val 391790"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -21972,61 +24185,6 @@
         </a:fillRef>
         <a:effectRef idx="2">
           <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>261392</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>25185</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>34019</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>7116</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="383" name="Conector em curva 382"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="381" idx="0"/>
-          <a:endCxn id="335" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="23479383" y="5341373"/>
-          <a:ext cx="1124931" cy="6875555"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="660066"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -22303,8 +24461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Z1:AO461"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AU66" sqref="AU66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="X156" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AS198" sqref="AS198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OWLPHM Gráfica.xlsx
+++ b/OWLPHM Gráfica.xlsx
@@ -15,7 +15,6 @@
     <sheet name="OntoPHM" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,6 +110,58 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>450274</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="Retângulo de cantos arredondados 113"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27895881" y="25254857"/>
+          <a:ext cx="12272406" cy="3986893"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>493940</xdr:colOff>
       <xdr:row>158</xdr:row>
@@ -166,18 +217,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Information</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ForPHM</a:t>
+            <a:t>PHM Data</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -188,14 +228,14 @@
     <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>112079</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>120063</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>265700</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>160563</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>174168</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -204,8 +244,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15899767" y="10216563"/>
-          <a:ext cx="1368058" cy="612000"/>
+          <a:off x="16032436" y="10420668"/>
+          <a:ext cx="1378264" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -240,9 +280,19 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Perform Data Collection</a:t>
+            <a:t>Condition Monitoring</a:t>
           </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -252,14 +302,14 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>270871</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>45063</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>58667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>112079</xdr:colOff>
+      <xdr:colOff>112080</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>84363</xdr:rowOff>
+      <xdr:rowOff>84362</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -268,10 +318,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14966585" y="10522563"/>
-          <a:ext cx="1065851" cy="19660800"/>
-          <a:chOff x="883998" y="-18052437"/>
-          <a:chExt cx="1061155" cy="19660800"/>
+          <a:off x="14966585" y="10726667"/>
+          <a:ext cx="1065852" cy="19456695"/>
+          <a:chOff x="883998" y="-17848333"/>
+          <a:chExt cx="1061156" cy="19456695"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:cxnSp macro="">
@@ -284,8 +334,8 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm rot="10800000" flipV="1">
-            <a:off x="1125052" y="-18052437"/>
-            <a:ext cx="820101" cy="19660800"/>
+            <a:off x="1125052" y="-17848333"/>
+            <a:ext cx="820102" cy="19456695"/>
           </a:xfrm>
           <a:prstGeom prst="curvedConnector2">
             <a:avLst/>
@@ -649,13 +699,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>128581</xdr:colOff>
+      <xdr:colOff>60546</xdr:colOff>
       <xdr:row>228</xdr:row>
       <xdr:rowOff>166684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>408750</xdr:colOff>
+      <xdr:colOff>340715</xdr:colOff>
       <xdr:row>232</xdr:row>
       <xdr:rowOff>16684</xdr:rowOff>
     </xdr:to>
@@ -666,8 +716,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3802510" y="43600684"/>
-          <a:ext cx="1504811" cy="612000"/>
+          <a:off x="17817867" y="43600684"/>
+          <a:ext cx="1504812" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -827,13 +877,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>150814</xdr:colOff>
+      <xdr:colOff>150815</xdr:colOff>
       <xdr:row>223</xdr:row>
       <xdr:rowOff>22314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>128581</xdr:colOff>
+      <xdr:colOff>60547</xdr:colOff>
       <xdr:row>230</xdr:row>
       <xdr:rowOff>91685</xdr:rowOff>
     </xdr:to>
@@ -847,8 +897,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="17295814" y="42503814"/>
-          <a:ext cx="590088" cy="1402871"/>
+          <a:off x="17295815" y="42503814"/>
+          <a:ext cx="522053" cy="1402871"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -1072,8 +1122,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5815697" y="37838742"/>
-          <a:ext cx="1774233" cy="612000"/>
+          <a:off x="19899090" y="37838742"/>
+          <a:ext cx="1774232" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1109,7 +1159,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Impeller</a:t>
+            <a:t>Rotor</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2455,13 +2505,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>408750</xdr:colOff>
+      <xdr:colOff>340716</xdr:colOff>
       <xdr:row>230</xdr:row>
       <xdr:rowOff>88282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>163290</xdr:colOff>
+      <xdr:colOff>163291</xdr:colOff>
       <xdr:row>230</xdr:row>
       <xdr:rowOff>91683</xdr:rowOff>
     </xdr:to>
@@ -2475,8 +2525,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5307321" y="43903282"/>
-          <a:ext cx="366862" cy="3401"/>
+          <a:off x="19322680" y="43903282"/>
+          <a:ext cx="434897" cy="3401"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst/>
@@ -2505,7 +2555,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>188376</xdr:colOff>
+      <xdr:colOff>120340</xdr:colOff>
       <xdr:row>226</xdr:row>
       <xdr:rowOff>88283</xdr:rowOff>
     </xdr:from>
@@ -2525,8 +2575,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5086947" y="43141283"/>
-          <a:ext cx="587236" cy="549026"/>
+          <a:off x="19102304" y="43141283"/>
+          <a:ext cx="655272" cy="549026"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -2554,29 +2604,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>268667</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>120340</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>88282</xdr:rowOff>
+      <xdr:rowOff>88283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>163291</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>166683</xdr:rowOff>
+      <xdr:colOff>163290</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>65809</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="55" name="Conector em curva 54"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="82" idx="2"/>
-          <a:endCxn id="27" idx="0"/>
+          <a:endCxn id="27" idx="7"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="4554917" y="42379282"/>
-          <a:ext cx="1119267" cy="1221401"/>
+          <a:off x="19102304" y="42379283"/>
+          <a:ext cx="655272" cy="1311026"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -2605,31 +2655,33 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>188376</xdr:colOff>
-      <xdr:row>231</xdr:row>
-      <xdr:rowOff>117559</xdr:rowOff>
+      <xdr:colOff>340716</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>91685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>163290</xdr:colOff>
+      <xdr:colOff>163291</xdr:colOff>
       <xdr:row>234</xdr:row>
-      <xdr:rowOff>88283</xdr:rowOff>
+      <xdr:rowOff>88284</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="57" name="Conector em curva 56"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="85" idx="2"/>
-          <a:endCxn id="27" idx="5"/>
+          <a:endCxn id="27" idx="6"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5086947" y="44123059"/>
-          <a:ext cx="587236" cy="542224"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
+          <a:off x="19322680" y="43906685"/>
+          <a:ext cx="434897" cy="758599"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -2654,29 +2706,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>268667</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>16685</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>120340</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>117559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>163291</xdr:colOff>
+      <xdr:colOff>163290</xdr:colOff>
       <xdr:row>238</xdr:row>
-      <xdr:rowOff>88284</xdr:rowOff>
+      <xdr:rowOff>88283</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="59" name="Conector em curva 58"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="86" idx="2"/>
-          <a:endCxn id="27" idx="4"/>
+          <a:endCxn id="27" idx="5"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="4554917" y="44212685"/>
-          <a:ext cx="1119267" cy="1214599"/>
+          <a:off x="19102304" y="44123059"/>
+          <a:ext cx="655272" cy="1304224"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -2704,14 +2756,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>348956</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>120340</xdr:colOff>
       <xdr:row>231</xdr:row>
       <xdr:rowOff>117559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>163291</xdr:colOff>
+      <xdr:colOff>163290</xdr:colOff>
       <xdr:row>242</xdr:row>
       <xdr:rowOff>88283</xdr:rowOff>
     </xdr:to>
@@ -2720,13 +2772,13 @@
         <xdr:cNvPr id="61" name="Conector em curva 60"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="87" idx="2"/>
-          <a:endCxn id="27" idx="3"/>
+          <a:endCxn id="27" idx="5"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="4022885" y="44123059"/>
-          <a:ext cx="1651299" cy="2066224"/>
+          <a:off x="19102304" y="44123059"/>
+          <a:ext cx="655272" cy="2066224"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -2923,7 +2975,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>FMSA Resources</a:t>
+            <a:t>FMSA Data</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5663,7 +5715,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Condition Monitoring</a:t>
+            <a:t>Measurement Techniques</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5674,14 +5726,14 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>260237</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>124171</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>137776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>544887</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>164671</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>178276</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5690,921 +5742,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17869581" y="10220671"/>
-          <a:ext cx="1499087" cy="612000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Parameter Information</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>204109</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>149685</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>488758</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190185</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="295" name="Elipse 294"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5715002" y="340185"/>
-          <a:ext cx="1509292" cy="612000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Acoustic Emission</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>116067</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>475149</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>156567</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="296" name="Elipse 295"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5701393" y="1068567"/>
-          <a:ext cx="1509292" cy="612000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Infrared Thermography</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>231323</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>60037</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>515972</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>100537</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="297" name="Elipse 296"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5742216" y="1774537"/>
-          <a:ext cx="1509292" cy="612000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Oil Analysis</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>233727</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>15218</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>518376</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>55718</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="298" name="Elipse 297"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5744620" y="2491718"/>
-          <a:ext cx="1509292" cy="612000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Ultrasound</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>190505</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>26419</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>475154</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66919</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="299" name="Elipse 298"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5701398" y="3264919"/>
-          <a:ext cx="1509292" cy="612000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Vibration Analysis</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>231323</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>36525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>515972</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>77025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="300" name="Elipse 299"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19662323" y="4037025"/>
-          <a:ext cx="1784837" cy="612000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Visul Inspection</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>258537</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>74684</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>204110</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1062" name="Conector em curva 1061"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="295" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5157108" y="646184"/>
-          <a:ext cx="557895" cy="1857529"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>240518</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>41067</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>103241</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1065" name="Conector em curva 1064"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="296" idx="2"/>
-          <a:endCxn id="292" idx="7"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5139089" y="1374567"/>
-          <a:ext cx="562305" cy="1205174"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>240517</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>175537</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>231323</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>103241</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1067" name="Conector em curva 1066"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="297" idx="2"/>
-          <a:endCxn id="292" idx="7"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5139088" y="2080537"/>
-          <a:ext cx="603128" cy="499204"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>461549</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>129116</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>233728</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>130718</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1069" name="Conector em curva 1068"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="298" idx="2"/>
-          <a:endCxn id="292" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="5360120" y="2796116"/>
-          <a:ext cx="384501" cy="1602"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>240517</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>154991</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>190505</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>141919</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1071" name="Conector em curva 1070"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="299" idx="2"/>
-          <a:endCxn id="292" idx="5"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="5139088" y="3012491"/>
-          <a:ext cx="562310" cy="558428"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>242012</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>154991</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>231323</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152025</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1073" name="Conector em curva 1072"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="300" idx="2"/>
-          <a:endCxn id="292" idx="5"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="19065793" y="3012491"/>
-          <a:ext cx="596530" cy="1330534"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>313922</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>129116</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>176899</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>19188</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1075" name="Conector em curva 1074"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="292" idx="2"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="16234279" y="2796116"/>
-          <a:ext cx="1699941" cy="7510072"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>265700</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>45063</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>260237</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>49171</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1077" name="Conector em curva 1076"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="294" idx="2"/>
-          <a:endCxn id="4" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="17267825" y="10522563"/>
-          <a:ext cx="601756" cy="4108"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>217718</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>125868</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>502367</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>166368</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="332" name="Elipse 331"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19648718" y="5459868"/>
-          <a:ext cx="1784837" cy="612000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="3">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Vibration Collector</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>185402</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>470051</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>111938</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="333" name="Elipse 332"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19616402" y="12453938"/>
-          <a:ext cx="1784837" cy="612000"/>
+          <a:off x="18017558" y="10424776"/>
+          <a:ext cx="1509293" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6653,6 +5792,938 @@
           <a:r>
             <a:rPr lang="pt-BR" sz="1100">
               <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Data Collection Parameters</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>204109</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>149685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>488758</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190185</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="295" name="Elipse 294"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5715002" y="340185"/>
+          <a:ext cx="1509292" cy="612000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Acoustic Emission</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>116067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>475149</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>156567</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="296" name="Elipse 295"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5701393" y="1068567"/>
+          <a:ext cx="1509292" cy="612000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Infrared Thermography</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>231323</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>515972</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100537</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="297" name="Elipse 296"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5742216" y="1774537"/>
+          <a:ext cx="1509292" cy="612000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Oil Analysis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>233727</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>518376</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>55718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="298" name="Elipse 297"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5744620" y="2491718"/>
+          <a:ext cx="1509292" cy="612000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Ultrasound</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>190505</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>475154</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="299" name="Elipse 298"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5701398" y="3264919"/>
+          <a:ext cx="1509292" cy="612000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Vibration Analysis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>231323</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>36525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>515972</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>77025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="300" name="Elipse 299"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19662323" y="4037025"/>
+          <a:ext cx="1784837" cy="612000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Visul Inspection</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>258537</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>74684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>204110</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1062" name="Conector em curva 1061"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="295" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5157108" y="646184"/>
+          <a:ext cx="557895" cy="1857529"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>240518</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>41067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>103241</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1065" name="Conector em curva 1064"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="296" idx="2"/>
+          <a:endCxn id="292" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5139089" y="1374567"/>
+          <a:ext cx="562305" cy="1205174"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>240517</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>231323</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>103241</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1067" name="Conector em curva 1066"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="297" idx="2"/>
+          <a:endCxn id="292" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5139088" y="2080537"/>
+          <a:ext cx="603128" cy="499204"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>461549</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>233728</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>130718</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1069" name="Conector em curva 1068"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="298" idx="2"/>
+          <a:endCxn id="292" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5360120" y="2796116"/>
+          <a:ext cx="384501" cy="1602"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>240517</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>154991</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>190505</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>141919</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1071" name="Conector em curva 1070"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="299" idx="2"/>
+          <a:endCxn id="292" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5139088" y="3012491"/>
+          <a:ext cx="562310" cy="558428"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>242012</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>154991</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>231323</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1073" name="Conector em curva 1072"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="300" idx="2"/>
+          <a:endCxn id="292" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="19065793" y="3012491"/>
+          <a:ext cx="596530" cy="1330534"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>313922</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>176899</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>32792</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1075" name="Conector em curva 1074"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="292" idx="2"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="16234279" y="2796115"/>
+          <a:ext cx="1699941" cy="7714177"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>265700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>58668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>260237</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>62776</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1077" name="Conector em curva 1076"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="294" idx="2"/>
+          <a:endCxn id="4" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="17410700" y="10726668"/>
+          <a:ext cx="606858" cy="4108"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>217718</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>125868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>502367</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>166368</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="332" name="Elipse 331"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19648718" y="5459868"/>
+          <a:ext cx="1784837" cy="612000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Collector Type</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>212617</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>57831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>497266</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>98331</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="333" name="Elipse 332"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19806903" y="13202331"/>
+          <a:ext cx="1781434" cy="612000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100">
+              <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:effectLst/>
@@ -6660,7 +6731,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Vibration Measurement</a:t>
+            <a:t>Measurement Location</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1100">
             <a:solidFill>
@@ -6676,14 +6747,14 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>239828</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>124166</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>137771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>524477</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>164666</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>178271</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6692,8 +6763,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19670828" y="10220666"/>
-          <a:ext cx="1784837" cy="612000"/>
+          <a:off x="19834114" y="10424771"/>
+          <a:ext cx="1781434" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6729,22 +6800,6 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Vibration</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
             <a:t>Magnitude</a:t>
           </a:r>
         </a:p>
@@ -6809,7 +6864,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Vibration Zone Boundary</a:t>
+            <a:t>Zone Boundary</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12446,14 +12501,14 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>178292</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>24132</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>51348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>149678</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>130587</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>157803</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12462,7 +12517,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14261685" y="10311132"/>
+          <a:off x="14261685" y="10719348"/>
           <a:ext cx="1196029" cy="296955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12517,8 +12572,8 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>319223</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>24132</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>51348</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12530,8 +12585,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="13169775" y="4792041"/>
-          <a:ext cx="7209016" cy="3829166"/>
+          <a:off x="12965667" y="4996149"/>
+          <a:ext cx="7617232" cy="3829166"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -12562,15 +12617,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>163985</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>130587</xdr:rowOff>
+      <xdr:colOff>163987</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>157802</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>446286</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>161063</xdr:rowOff>
+      <xdr:colOff>473503</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>147455</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12582,8 +12637,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="16482398" y="8985388"/>
-          <a:ext cx="1935476" cy="5180873"/>
+          <a:off x="16325918" y="9550085"/>
+          <a:ext cx="2275653" cy="5208088"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -13305,15 +13360,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>402563</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>164672</xdr:rowOff>
+      <xdr:colOff>402562</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>178277</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>185403</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>186939</xdr:rowOff>
+      <xdr:colOff>212617</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>173332</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13325,8 +13380,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="18619126" y="10832672"/>
-          <a:ext cx="997277" cy="1927267"/>
+          <a:off x="18772205" y="11036777"/>
+          <a:ext cx="1034698" cy="2471555"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -13355,15 +13410,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>544887</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>49165</xdr:rowOff>
+      <xdr:colOff>544888</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>62770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>239828</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>49170</xdr:rowOff>
+      <xdr:colOff>239829</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>62775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13375,8 +13430,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="19368668" y="10526665"/>
-          <a:ext cx="302160" cy="5"/>
+          <a:off x="19526852" y="10730770"/>
+          <a:ext cx="307263" cy="5"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -13409,13 +13464,13 @@
       <xdr:col>30</xdr:col>
       <xdr:colOff>402562</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>100185</xdr:rowOff>
+      <xdr:rowOff>100184</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>119067</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>124171</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>137775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13427,8 +13482,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="18619125" y="7910685"/>
-          <a:ext cx="930942" cy="2309986"/>
+          <a:off x="18772205" y="7910684"/>
+          <a:ext cx="941148" cy="2514091"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -13459,13 +13514,13 @@
       <xdr:col>30</xdr:col>
       <xdr:colOff>402563</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>50867</xdr:rowOff>
+      <xdr:rowOff>50868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>217719</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>124170</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>137776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13477,8 +13532,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="18619126" y="5765867"/>
-          <a:ext cx="1029593" cy="4454803"/>
+          <a:off x="18772206" y="5765868"/>
+          <a:ext cx="1039799" cy="4658908"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -13624,15 +13679,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>62933</xdr:colOff>
+      <xdr:colOff>62934</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:rowOff>40820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>500712</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>23291</xdr:rowOff>
+      <xdr:colOff>500713</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>36895</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -13644,8 +13699,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="17136231" y="7351523"/>
-          <a:ext cx="3030470" cy="2887065"/>
+          <a:off x="17034179" y="7453575"/>
+          <a:ext cx="3234575" cy="2887065"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -13808,15 +13863,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>11339</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>596447</xdr:colOff>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>68603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>546554</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:colOff>519340</xdr:colOff>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>136640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -13826,8 +13881,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18108839" y="15308603"/>
-          <a:ext cx="1138465" cy="449037"/>
+          <a:off x="18353768" y="15689603"/>
+          <a:ext cx="1147536" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13887,14 +13942,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>546554</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>111938</xdr:rowOff>
+      <xdr:colOff>519340</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>98331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>327727</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:colOff>354941</xdr:colOff>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>102622</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -13907,8 +13962,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="19247304" y="13065938"/>
-          <a:ext cx="1130548" cy="2467184"/>
+          <a:off x="19501304" y="13814331"/>
+          <a:ext cx="1196316" cy="2099791"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -14408,12 +14463,12 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>328273</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>111938</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>98331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>327727</xdr:colOff>
+      <xdr:colOff>354941</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>167822</xdr:rowOff>
     </xdr:to>
@@ -14427,8 +14482,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10583523" y="13065938"/>
-          <a:ext cx="9794329" cy="3484884"/>
+          <a:off x="10737737" y="13814331"/>
+          <a:ext cx="9959883" cy="2736491"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -14458,15 +14513,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>378164</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>175758</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>171223</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>53295</xdr:rowOff>
+      <xdr:colOff>146843</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>66901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>552224</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>134938</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14475,8 +14530,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21174414" y="14844258"/>
-          <a:ext cx="1142434" cy="449037"/>
+          <a:off x="21237914" y="15116401"/>
+          <a:ext cx="1153774" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14536,15 +14591,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>327727</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>111939</xdr:rowOff>
+      <xdr:colOff>354941</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>98332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>378164</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>19278</xdr:rowOff>
+      <xdr:colOff>146843</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>100921</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14556,8 +14611,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="20377852" y="13065939"/>
-          <a:ext cx="796562" cy="2002839"/>
+          <a:off x="20697620" y="13814332"/>
+          <a:ext cx="540294" cy="1526589"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -14714,15 +14769,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>406515</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:colOff>420122</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>338479</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>13609</xdr:rowOff>
+      <xdr:colOff>352086</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>122466</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14731,8 +14786,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19837515" y="9089572"/>
-          <a:ext cx="1432152" cy="449037"/>
+          <a:off x="20014408" y="9388929"/>
+          <a:ext cx="1428749" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14792,15 +14847,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>372498</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:colOff>382153</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>382154</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>124165</xdr:rowOff>
+      <xdr:colOff>386105</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>137770</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14811,9 +14866,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="20217391" y="9874809"/>
-          <a:ext cx="682057" cy="9656"/>
+        <a:xfrm rot="5400000">
+          <a:off x="20433405" y="10129392"/>
+          <a:ext cx="586805" cy="3952"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -14931,14 +14986,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>30048</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>111938</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>327727</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>140039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>354941</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>98331</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14949,12 +15004,15 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11491798" y="13065938"/>
-          <a:ext cx="8886054" cy="218601"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
+        <a:xfrm>
+          <a:off x="11664155" y="13284539"/>
+          <a:ext cx="9033465" cy="529792"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 45070"/>
+            <a:gd name="adj2" fmla="val 143149"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
           <a:prstDash val="solid"/>
@@ -16401,14 +16459,14 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>215879</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>13608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>416717</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>128868</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16417,8 +16475,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23718817" y="8858251"/>
-          <a:ext cx="1415275" cy="414617"/>
+          <a:off x="23892308" y="8967108"/>
+          <a:ext cx="1425480" cy="414617"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -16488,15 +16546,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>420316</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>112060</xdr:rowOff>
+      <xdr:colOff>433923</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>30417</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>215879</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>115500</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>33857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -16508,8 +16566,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="23316035" y="9065560"/>
-          <a:ext cx="402782" cy="3440"/>
+          <a:off x="23498030" y="9174417"/>
+          <a:ext cx="394278" cy="3440"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -16606,8 +16664,8 @@
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="17313028">
-          <a:off x="16486753" y="4589011"/>
+        <a:xfrm rot="16988760">
+          <a:off x="16303057" y="4589011"/>
           <a:ext cx="819648" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16649,13 +16707,13 @@
       <xdr:col>38</xdr:col>
       <xdr:colOff>72317</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>84843</xdr:rowOff>
+      <xdr:rowOff>166485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>442845</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>118460</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9602</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16664,8 +16722,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23575255" y="9609843"/>
-          <a:ext cx="1584965" cy="414617"/>
+          <a:off x="23748746" y="9691485"/>
+          <a:ext cx="1595170" cy="414617"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -16735,15 +16793,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>360788</xdr:colOff>
+      <xdr:colOff>360789</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>101651</xdr:rowOff>
+      <xdr:rowOff>183293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>72317</xdr:colOff>
+      <xdr:colOff>72318</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>103592</xdr:rowOff>
+      <xdr:rowOff>185234</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -16755,8 +16813,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="23256507" y="9817151"/>
-          <a:ext cx="318748" cy="1941"/>
+          <a:off x="23424896" y="9898793"/>
+          <a:ext cx="323851" cy="1941"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -16790,15 +16848,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>77421</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>149477</xdr:rowOff>
+      <xdr:colOff>131849</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>27012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>586809</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>183094</xdr:rowOff>
+      <xdr:colOff>641237</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>60629</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16807,8 +16865,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23580359" y="11007977"/>
-          <a:ext cx="1723825" cy="414617"/>
+          <a:off x="23808278" y="11457012"/>
+          <a:ext cx="1734030" cy="414617"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -16878,15 +16936,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>384600</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>163126</xdr:rowOff>
+      <xdr:colOff>384601</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>40661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>77421</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>166286</xdr:rowOff>
+      <xdr:colOff>131850</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>43822</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -16898,8 +16956,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="23280319" y="11212126"/>
-          <a:ext cx="300040" cy="3160"/>
+          <a:off x="23448708" y="11661161"/>
+          <a:ext cx="359571" cy="3161"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -16934,14 +16992,14 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>91028</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>23611</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>37216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>461556</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>57228</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>70833</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16950,8 +17008,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23593966" y="10310611"/>
-          <a:ext cx="1584965" cy="414617"/>
+          <a:off x="23767457" y="10514716"/>
+          <a:ext cx="1595170" cy="414617"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -17021,15 +17079,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>360787</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>40419</xdr:rowOff>
+      <xdr:colOff>360788</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>54024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>91028</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>44062</xdr:rowOff>
+      <xdr:colOff>91029</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>57667</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -17041,8 +17099,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="23256506" y="10517919"/>
-          <a:ext cx="337460" cy="3643"/>
+          <a:off x="23424895" y="10722024"/>
+          <a:ext cx="342563" cy="3643"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -17076,15 +17134,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>157074</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>48622</xdr:rowOff>
+      <xdr:colOff>265932</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>116658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>527602</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>82239</xdr:rowOff>
+      <xdr:colOff>636460</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>150275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17093,8 +17151,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23660012" y="11859622"/>
-          <a:ext cx="1584965" cy="414617"/>
+          <a:off x="23942361" y="12689658"/>
+          <a:ext cx="1595170" cy="414617"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -17164,15 +17222,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>473046</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>65431</xdr:rowOff>
+      <xdr:colOff>513866</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>133466</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>157075</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>188639</xdr:rowOff>
+      <xdr:colOff>265932</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>175031</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -17184,8 +17242,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="23537153" y="12066931"/>
-          <a:ext cx="296351" cy="694708"/>
+          <a:off x="23577973" y="12896966"/>
+          <a:ext cx="364388" cy="613065"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -17219,14 +17277,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>139764</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:colOff>289442</xdr:colOff>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>155379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>510292</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:colOff>659970</xdr:colOff>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>188996</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -17236,8 +17294,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23642702" y="12537879"/>
-          <a:ext cx="1584965" cy="414617"/>
+          <a:off x="23965871" y="13299879"/>
+          <a:ext cx="1595170" cy="414617"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -17312,15 +17370,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>473046</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>172187</xdr:rowOff>
+      <xdr:colOff>513866</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>172188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>139765</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>188638</xdr:rowOff>
+      <xdr:colOff>289442</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>175032</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -17332,8 +17390,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="23537153" y="12745187"/>
-          <a:ext cx="279041" cy="16451"/>
+          <a:off x="23577973" y="13507188"/>
+          <a:ext cx="387898" cy="2844"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -17367,15 +17425,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>148569</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>83636</xdr:rowOff>
+      <xdr:colOff>325463</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>519097</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>117253</xdr:rowOff>
+      <xdr:colOff>695991</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>35611</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17384,8 +17442,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23651507" y="13228136"/>
-          <a:ext cx="1584965" cy="414617"/>
+          <a:off x="24001892" y="14098994"/>
+          <a:ext cx="1595170" cy="414617"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -17460,15 +17518,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>473045</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>188639</xdr:rowOff>
+      <xdr:colOff>513867</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>175033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>148569</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>100445</xdr:rowOff>
+      <xdr:colOff>325464</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>18804</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -17480,8 +17538,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="23537152" y="12761639"/>
-          <a:ext cx="287846" cy="673806"/>
+          <a:off x="23577974" y="13510033"/>
+          <a:ext cx="423919" cy="796271"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -19459,15 +19517,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>531036</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>161063</xdr:rowOff>
+      <xdr:colOff>531034</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>147457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>446288</xdr:colOff>
+      <xdr:colOff>473501</xdr:colOff>
       <xdr:row>207</xdr:row>
-      <xdr:rowOff>94556</xdr:rowOff>
+      <xdr:rowOff>94557</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -19479,12 +19537,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2304451" y="21791934"/>
-          <a:ext cx="26984493" cy="8487752"/>
+          <a:off x="2692254" y="22152523"/>
+          <a:ext cx="26236100" cy="8514967"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 101179"/>
+            <a:gd name="adj1" fmla="val 101213"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -19799,15 +19857,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>142872</xdr:colOff>
+      <xdr:colOff>156479</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>420316</xdr:colOff>
+      <xdr:colOff>433923</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>40500</xdr:rowOff>
+      <xdr:rowOff>149357</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19816,8 +19874,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21824153" y="8763000"/>
-          <a:ext cx="1491882" cy="612000"/>
+          <a:off x="21995943" y="8871857"/>
+          <a:ext cx="1502087" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -19864,14 +19922,14 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>83344</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>69735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>360788</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>28593</xdr:rowOff>
+      <xdr:rowOff>110235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19880,8 +19938,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21764625" y="9513093"/>
-          <a:ext cx="1491882" cy="612000"/>
+          <a:off x="21922808" y="9594735"/>
+          <a:ext cx="1502087" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -19917,7 +19975,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Aceleration</a:t>
+            <a:t>Vibration Aceleration</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19928,14 +19986,14 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>107156</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>115660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>384600</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>88126</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>156160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19944,8 +20002,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21788437" y="10906126"/>
-          <a:ext cx="1491882" cy="612000"/>
+          <a:off x="21946620" y="11355160"/>
+          <a:ext cx="1502087" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -19981,23 +20039,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>RMS</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Displacement</a:t>
+            <a:t>Vibration Displacement</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20008,14 +20050,14 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>83343</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>132668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>360787</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>159563</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>173168</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20024,8 +20066,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21764624" y="10215563"/>
-          <a:ext cx="1491882" cy="612000"/>
+          <a:off x="21922807" y="10419668"/>
+          <a:ext cx="1502087" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -20061,7 +20103,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>RMS Velocity</a:t>
+            <a:t>Vibration Velocity</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20071,15 +20113,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>159883</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>73139</xdr:rowOff>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>473045</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>113639</xdr:rowOff>
+      <xdr:colOff>513866</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>100032</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20088,8 +20130,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21999347" y="12455639"/>
-          <a:ext cx="1537805" cy="612000"/>
+          <a:off x="21961928" y="13204032"/>
+          <a:ext cx="1616045" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -20145,19 +20187,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Measurement</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Location</a:t>
+            <a:t>Vibration Measurement_1</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR">
             <a:solidFill>
@@ -20173,15 +20203,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>470052</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>186939</xdr:rowOff>
+      <xdr:colOff>497267</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>173332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>159884</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>188640</xdr:rowOff>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>175033</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20193,8 +20223,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="21561123" y="12759939"/>
-          <a:ext cx="438225" cy="1701"/>
+          <a:off x="21588338" y="13508332"/>
+          <a:ext cx="373591" cy="1701"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -20227,13 +20257,13 @@
       <xdr:col>34</xdr:col>
       <xdr:colOff>524477</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>103592</xdr:rowOff>
+      <xdr:rowOff>185235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>83344</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>49165</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>62771</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20245,8 +20275,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="21455665" y="9819092"/>
-          <a:ext cx="308960" cy="707573"/>
+          <a:off x="21615548" y="9900735"/>
+          <a:ext cx="307260" cy="830036"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -20278,14 +20308,14 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>524478</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>44062</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>57667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>83344</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>49165</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>62770</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20297,8 +20327,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="21455666" y="10521562"/>
-          <a:ext cx="308959" cy="5103"/>
+          <a:off x="21615549" y="10725667"/>
+          <a:ext cx="307259" cy="5103"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -20330,14 +20360,14 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>524477</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>49166</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>62772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>107156</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>163126</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>40661</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20349,8 +20379,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="21455665" y="10526666"/>
-          <a:ext cx="332772" cy="685460"/>
+          <a:off x="21615548" y="10730772"/>
+          <a:ext cx="331072" cy="930389"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -20537,15 +20567,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>403717</xdr:colOff>
+      <xdr:colOff>403716</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>100186</xdr:rowOff>
+      <xdr:rowOff>100185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>142873</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>115501</xdr:rowOff>
+      <xdr:colOff>156479</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>33857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20557,8 +20587,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="21334905" y="7910686"/>
-          <a:ext cx="489249" cy="1158315"/>
+          <a:off x="21494787" y="7910685"/>
+          <a:ext cx="501156" cy="1267172"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -20643,7 +20673,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Accelerometer</a:t>
+            <a:t>Accelerometer Transducer</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -20818,82 +20848,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>130970</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="262380" cy="1219373"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="606" name="CaixaDeTexto 605"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22455187" y="12894470"/>
-          <a:ext cx="262380" cy="1219373"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="2400"/>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="2400"/>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="2400"/>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>493258</xdr:colOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>289151</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>574901</xdr:colOff>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>234724</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>136074</xdr:rowOff>
+      <xdr:rowOff>149681</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20902,7 +20868,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19475222" y="6545037"/>
+          <a:off x="19883437" y="6558644"/>
           <a:ext cx="1442358" cy="449037"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20962,16 +20928,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>602115</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>136073</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>261391</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>149681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>175184</xdr:rowOff>
+      <xdr:rowOff>175185</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20982,9 +20948,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="20094930" y="7095544"/>
-          <a:ext cx="610611" cy="407669"/>
+        <a:xfrm rot="5400000">
+          <a:off x="20305841" y="7305910"/>
+          <a:ext cx="597004" cy="546"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -21637,15 +21603,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>327727</xdr:colOff>
+      <xdr:colOff>354942</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>77056</xdr:rowOff>
+      <xdr:rowOff>77055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>536121</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:colOff>536122</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>57830</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -21657,8 +21623,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="24247233" y="7780550"/>
-          <a:ext cx="1327882" cy="8018894"/>
+          <a:off x="23607698" y="8215978"/>
+          <a:ext cx="2076275" cy="7896430"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -21743,16 +21709,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>156795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>7116</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
+      <xdr:colOff>557893</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>143187</xdr:rowOff>
+      <xdr:rowOff>102366</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -21761,7 +21727,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26887714" y="9341616"/>
+          <a:off x="26207357" y="9300795"/>
           <a:ext cx="1183822" cy="326571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21808,33 +21774,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>382153</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>263592</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>143186</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>34019</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>164665</xdr:rowOff>
+      <xdr:rowOff>102367</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>578304</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>88647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="382" name="Conector em curva 381"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="381" idx="2"/>
-          <a:endCxn id="334" idx="4"/>
+          <a:endCxn id="334" idx="5"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="23519989" y="6873029"/>
-          <a:ext cx="1164479" cy="6754794"/>
+          <a:off x="23417076" y="7564954"/>
+          <a:ext cx="1319780" cy="5444605"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 176888"/>
+            <a:gd name="adj1" fmla="val 124112"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -21861,15 +21827,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>261392</xdr:colOff>
+      <xdr:colOff>261391</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>25185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>34019</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>7116</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>578304</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>156795</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -21881,8 +21847,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="23479383" y="5341373"/>
-          <a:ext cx="1124931" cy="6875555"/>
+          <a:off x="23159614" y="5661141"/>
+          <a:ext cx="1084110" cy="6195198"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -22229,15 +22195,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>401982</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>23291</xdr:rowOff>
+      <xdr:colOff>401980</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>36897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>500050</xdr:colOff>
+      <xdr:colOff>500712</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>117272</xdr:rowOff>
+      <xdr:rowOff>117273</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -22249,12 +22215,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="769150" y="18991873"/>
-          <a:ext cx="27716481" cy="10353318"/>
+          <a:off x="1084712" y="19016486"/>
+          <a:ext cx="27512376" cy="10508197"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 101148"/>
+            <a:gd name="adj1" fmla="val 101157"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
@@ -24191,6 +24157,5346 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="255904" cy="1272143"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="380" name="CaixaDeTexto 379"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18505714" y="30847392"/>
+          <a:ext cx="255904" cy="1272143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>176894</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="255904" cy="1272143"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="387" name="CaixaDeTexto 386"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22696714" y="13702394"/>
+          <a:ext cx="255904" cy="1272143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>348174</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>256418</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>78165</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="455" name="Fluxograma: Processo alternativo 454"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28446924" y="25527000"/>
+          <a:ext cx="1051244" cy="459165"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Failure analysis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>201968</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>81836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>343197</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>160962</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="463" name="Fluxograma: Processo alternativo 462"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34587218" y="26561336"/>
+          <a:ext cx="1284229" cy="460126"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Estimated Time To Failure </a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1200">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>118768</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>259996</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>50470</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="464" name="Fluxograma: Processo alternativo 463"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32789518" y="26488573"/>
+          <a:ext cx="1284228" cy="612897"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Remaining useful life prediction</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>532893</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>188442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>464004</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>76107</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="465" name="Fluxograma: Processo alternativo 464"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33775143" y="25715442"/>
+          <a:ext cx="1074111" cy="459165"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Artificial </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Intelligence</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>349628</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>65745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>388075</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>180496</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="466" name="Fluxograma: Processo alternativo 465"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36449378" y="26545245"/>
+          <a:ext cx="1181447" cy="495751"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Health Management</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>175839</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>85116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>156392</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>163281</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="467" name="Fluxograma: Processo alternativo 466"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31132089" y="26564616"/>
+          <a:ext cx="1123553" cy="459165"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Prognostics</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1600" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>220970</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>55150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>204429</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>110871</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="468" name="CaixaDeTexto 63"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34034720" y="26534650"/>
+          <a:ext cx="554959" cy="246221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Allows</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>65022</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>96368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>267208</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>7073</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="469" name="Fluxograma: Processo alternativo 468"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31021272" y="28671368"/>
+          <a:ext cx="1345186" cy="482205"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Condition-based maintenance</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>256419</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>39083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>570036</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>83202</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="470" name="Conector em curva 469"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="471" idx="0"/>
+          <a:endCxn id="455" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="29442418" y="25812334"/>
+          <a:ext cx="425119" cy="313617"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>567074</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>83202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>1496</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>161367</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="471" name="Fluxograma: Processo alternativo 470"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29237324" y="26181702"/>
+          <a:ext cx="1148922" cy="459165"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Diagnostics</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Techniques</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>156392</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>124199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>118768</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>125022</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="472" name="Conector de seta reta 471"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="467" idx="3"/>
+          <a:endCxn id="464" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32255642" y="26794199"/>
+          <a:ext cx="533876" cy="823"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>259996</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>121399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>201968</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>125022</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="473" name="Conector de seta reta 472"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="464" idx="3"/>
+          <a:endCxn id="463" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="34073746" y="26791399"/>
+          <a:ext cx="513472" cy="3623"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>278344</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>69153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>354618</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>147318</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="478" name="Fluxograma: Processo alternativo 477"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27234094" y="26548653"/>
+          <a:ext cx="1219274" cy="459165"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Manufacturing Items</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>343197</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>121399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>349628</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>123121</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="479" name="Conector de seta reta 478"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="463" idx="3"/>
+          <a:endCxn id="466" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35871447" y="26791399"/>
+          <a:ext cx="577931" cy="1722"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>123418</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>48153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>106877</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>103874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="480" name="CaixaDeTexto 135"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32222668" y="26527653"/>
+          <a:ext cx="554959" cy="246221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Allows</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>354618</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>105066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>241785</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>108236</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="481" name="Conector de seta reta 480"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="478" idx="3"/>
+          <a:endCxn id="499" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="28453368" y="26775066"/>
+          <a:ext cx="458667" cy="3170"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>242606</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>67587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>226065</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>123308</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="482" name="CaixaDeTexto 156"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30627356" y="26547087"/>
+          <a:ext cx="554959" cy="246221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Allows</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>294732</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>82249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>278191</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>137970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="483" name="CaixaDeTexto 159"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35822982" y="26561749"/>
+          <a:ext cx="554959" cy="246221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Allows</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>319598</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>34616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>303057</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>90337</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="484" name="CaixaDeTexto 167"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28418348" y="26514116"/>
+          <a:ext cx="554959" cy="246221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Allows</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>517815</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>108012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>90075</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>163733</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="485" name="CaixaDeTexto 168"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36617565" y="27730512"/>
+          <a:ext cx="715260" cy="246221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Schedule</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>328195</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>61859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>236439</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>140024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="486" name="Fluxograma: Processo alternativo 485"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30141445" y="27874859"/>
+          <a:ext cx="1051244" cy="459165"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Predictive techniques</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>18531</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>65639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>24453</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>143804</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="487" name="Fluxograma: Processo alternativo 486"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29260281" y="26926139"/>
+          <a:ext cx="1148922" cy="459165"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Condition</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Monitoring</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>21491</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>143804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>328194</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>100942</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="488" name="Conector em curva 487"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="487" idx="2"/>
+          <a:endCxn id="486" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="29628524" y="27591521"/>
+          <a:ext cx="719138" cy="306703"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>241785</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>29094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>378544</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>181038</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="499" name="Elipse 498"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28912035" y="26699094"/>
+          <a:ext cx="136759" cy="151944"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>310165</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>181038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>18531</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>104722</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="500" name="Conector em curva 499"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="499" idx="4"/>
+          <a:endCxn id="487" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="28968006" y="26863447"/>
+          <a:ext cx="304684" cy="279866"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>310165</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>122286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>567074</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>29095</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="501" name="Conector em curva 500"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="499" idx="0"/>
+          <a:endCxn id="471" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="28964965" y="26426736"/>
+          <a:ext cx="287809" cy="256909"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>179086</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>49076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>315845</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>10520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="502" name="Elipse 501"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30563836" y="26719076"/>
+          <a:ext cx="136759" cy="151944"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>24453</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>10520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>247466</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>104722</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="503" name="Conector em curva 502"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="487" idx="3"/>
+          <a:endCxn id="502" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="30409203" y="26871020"/>
+          <a:ext cx="223013" cy="284702"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>1496</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>122285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>247466</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>49076</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="504" name="Conector em curva 503"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="471" idx="3"/>
+          <a:endCxn id="502" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30386246" y="26411285"/>
+          <a:ext cx="245970" cy="307791"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>315845</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>124199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>175839</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>125048</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="505" name="Conector de seta reta 504"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="502" idx="6"/>
+          <a:endCxn id="467" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="30700595" y="26794199"/>
+          <a:ext cx="431494" cy="849"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>407654</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>50470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>189382</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>92328</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="506" name="Conector em curva 505"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="464" idx="2"/>
+          <a:endCxn id="524" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="32757839" y="27422035"/>
+          <a:ext cx="994358" cy="353228"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>430447</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>159746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>554970</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>178856</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="507" name="CaixaDeTexto 88"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29672197" y="25686746"/>
+          <a:ext cx="696023" cy="400110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Possibly </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>with</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>532310</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>157246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>85333</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>176356</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="508" name="CaixaDeTexto 89"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29202560" y="27589246"/>
+          <a:ext cx="696023" cy="400110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Possibly </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>with</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>570035</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>25947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>282587</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>81668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="509" name="Retângulo 508"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29811785" y="28791447"/>
+          <a:ext cx="284052" cy="246221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>in</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>464005</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>37025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>272584</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>81836</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="510" name="Conector em curva 509"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="463" idx="0"/>
+          <a:endCxn id="465" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="34731139" y="26063141"/>
+          <a:ext cx="616311" cy="380079"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>106846</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>26224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>231369</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>45334</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="511" name="CaixaDeTexto 52"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35063596" y="25934224"/>
+          <a:ext cx="696023" cy="400110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Possibly </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>with</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>316482</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>147319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>65023</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>146972</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="512" name="Conector em curva 511"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="469" idx="1"/>
+          <a:endCxn id="478" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="27843732" y="27007819"/>
+          <a:ext cx="3177541" cy="1904653"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>267209</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>180495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>368853</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>146970</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="520" name="Conector em curva 519"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="466" idx="2"/>
+          <a:endCxn id="469" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="33767543" y="25639911"/>
+          <a:ext cx="1871475" cy="4673644"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>88489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>131339</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>166654</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="521" name="Fluxograma: Processo alternativo 520"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26479500" y="25615489"/>
+          <a:ext cx="1179089" cy="459165"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Rotating components</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>131340</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>127572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>316482</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>69153</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="522" name="Conector em curva 521"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="478" idx="0"/>
+          <a:endCxn id="521" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="27399370" y="26104292"/>
+          <a:ext cx="703581" cy="185142"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>252136</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>103169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>70487</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>158890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="523" name="CaixaDeTexto 57"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27779386" y="26011169"/>
+          <a:ext cx="389851" cy="246221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>has</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>272163</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>53245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>407654</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>131410</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="524" name="Fluxograma: Processo alternativo 523"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31799913" y="27866245"/>
+          <a:ext cx="1278491" cy="459165"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Data collection Parameters</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>106877</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>65834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>231400</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>84944</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="525" name="CaixaDeTexto 85"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="32777627" y="27307334"/>
+          <a:ext cx="696023" cy="400110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Possibly </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1000">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>with</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>236439</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>92328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>272163</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>100942</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="528" name="Conector de seta reta 527"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="486" idx="3"/>
+          <a:endCxn id="524" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="31192689" y="28095828"/>
+          <a:ext cx="607224" cy="8614"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>284263</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>53245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>187572</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>108966</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="529" name="CaixaDeTexto 96"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31240513" y="27866245"/>
+          <a:ext cx="474809" cy="246221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="pt-BR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Feed</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -24461,8 +29767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Z1:AO461"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="X156" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AS198" sqref="AS198"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI220" sqref="AI220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OWLPHM Gráfica.xlsx
+++ b/OWLPHM Gráfica.xlsx
@@ -110,40 +110,153 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>450274</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>299358</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="Retângulo de cantos arredondados 113"/>
+        <xdr:cNvPr id="533" name="Retângulo de cantos arredondados 532"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27895881" y="25254857"/>
-          <a:ext cx="12272406" cy="3986893"/>
+          <a:off x="33868179" y="27881036"/>
+          <a:ext cx="2054678" cy="993321"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent5"/>
+        <a:ln w="28575">
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>285745</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="530" name="Retângulo de cantos arredondados 529"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34466888" y="25431749"/>
+          <a:ext cx="4544791" cy="1877787"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Retângulo de cantos arredondados 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27962679" y="25431750"/>
+          <a:ext cx="4708071" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:prstDash val="lgDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -318,8 +431,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14966585" y="10726667"/>
-          <a:ext cx="1065852" cy="19456695"/>
+          <a:off x="14901271" y="10726667"/>
+          <a:ext cx="1060409" cy="19456695"/>
           <a:chOff x="883998" y="-17848333"/>
           <a:chExt cx="1061156" cy="19456695"/>
         </a:xfrm>
@@ -24512,14 +24625,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>201968</xdr:colOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>351645</xdr:colOff>
       <xdr:row>139</xdr:row>
       <xdr:rowOff>81836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>343197</xdr:colOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>492873</xdr:colOff>
       <xdr:row>141</xdr:row>
       <xdr:rowOff>160962</xdr:rowOff>
     </xdr:to>
@@ -24530,8 +24643,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34587218" y="26561336"/>
-          <a:ext cx="1284229" cy="460126"/>
+          <a:off x="37594395" y="26561336"/>
+          <a:ext cx="1365871" cy="460126"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -24673,14 +24786,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>118768</xdr:colOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>91547</xdr:colOff>
       <xdr:row>139</xdr:row>
       <xdr:rowOff>9073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>259996</xdr:colOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>232775</xdr:colOff>
       <xdr:row>142</xdr:row>
       <xdr:rowOff>50470</xdr:rowOff>
     </xdr:to>
@@ -24691,8 +24804,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="32789518" y="26488573"/>
-          <a:ext cx="1284228" cy="612897"/>
+          <a:off x="35497333" y="26488573"/>
+          <a:ext cx="1365871" cy="612897"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -24840,16 +24953,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>532893</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>188442</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>59</xdr:col>
-      <xdr:colOff>464004</xdr:colOff>
+      <xdr:colOff>192716</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>38762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>123828</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>76107</xdr:rowOff>
+      <xdr:rowOff>116927</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -24858,8 +24971,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="33775143" y="25715442"/>
-          <a:ext cx="1074111" cy="459165"/>
+          <a:off x="36823145" y="25756262"/>
+          <a:ext cx="1155754" cy="459165"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -25010,14 +25123,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>349628</xdr:colOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>417664</xdr:colOff>
       <xdr:row>139</xdr:row>
       <xdr:rowOff>65745</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>388075</xdr:colOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>456111</xdr:colOff>
       <xdr:row>141</xdr:row>
       <xdr:rowOff>180496</xdr:rowOff>
     </xdr:to>
@@ -25028,8 +25141,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="36449378" y="26545245"/>
-          <a:ext cx="1181447" cy="495751"/>
+          <a:off x="39497378" y="26545245"/>
+          <a:ext cx="1263090" cy="495751"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -25340,16 +25453,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>220970</xdr:colOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>248182</xdr:colOff>
       <xdr:row>139</xdr:row>
-      <xdr:rowOff>55150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>204429</xdr:colOff>
+      <xdr:rowOff>68757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>231642</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>110871</xdr:rowOff>
+      <xdr:rowOff>124478</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -25358,8 +25471,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34034720" y="26534650"/>
-          <a:ext cx="554959" cy="246221"/>
+          <a:off x="36878611" y="26548257"/>
+          <a:ext cx="595781" cy="246221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25481,16 +25594,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>65022</xdr:colOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>51415</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>150797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>253601</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>96368</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>267208</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>7073</xdr:rowOff>
+      <xdr:rowOff>61502</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -25499,8 +25612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31021272" y="28671368"/>
-          <a:ext cx="1345186" cy="482205"/>
+          <a:off x="34232558" y="28154297"/>
+          <a:ext cx="1426829" cy="482205"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -25867,8 +25980,8 @@
       <xdr:rowOff>124199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>118768</xdr:colOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>91547</xdr:colOff>
       <xdr:row>140</xdr:row>
       <xdr:rowOff>125022</xdr:rowOff>
     </xdr:to>
@@ -25882,8 +25995,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="32255642" y="26794199"/>
-          <a:ext cx="533876" cy="823"/>
+          <a:off x="34337535" y="26794199"/>
+          <a:ext cx="1159798" cy="823"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -25911,14 +26024,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>259996</xdr:colOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>232775</xdr:colOff>
       <xdr:row>140</xdr:row>
       <xdr:rowOff>121399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>201968</xdr:colOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>351645</xdr:colOff>
       <xdr:row>140</xdr:row>
       <xdr:rowOff>125022</xdr:rowOff>
     </xdr:to>
@@ -25932,8 +26045,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="34073746" y="26791399"/>
-          <a:ext cx="513472" cy="3623"/>
+          <a:off x="36863204" y="26791399"/>
+          <a:ext cx="731191" cy="3623"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -26118,14 +26231,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>343197</xdr:colOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>492873</xdr:colOff>
       <xdr:row>140</xdr:row>
       <xdr:rowOff>121399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>349628</xdr:colOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>417664</xdr:colOff>
       <xdr:row>140</xdr:row>
       <xdr:rowOff>123121</xdr:rowOff>
     </xdr:to>
@@ -26139,8 +26252,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="35871447" y="26791399"/>
-          <a:ext cx="577931" cy="1722"/>
+          <a:off x="38960266" y="26791399"/>
+          <a:ext cx="537112" cy="1722"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -26169,15 +26282,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>123418</xdr:colOff>
+      <xdr:colOff>463596</xdr:colOff>
       <xdr:row>139</xdr:row>
-      <xdr:rowOff>48153</xdr:rowOff>
+      <xdr:rowOff>61760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
-      <xdr:colOff>106877</xdr:colOff>
+      <xdr:colOff>447055</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>103874</xdr:rowOff>
+      <xdr:rowOff>117481</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26186,8 +26299,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="32222668" y="26527653"/>
-          <a:ext cx="554959" cy="246221"/>
+          <a:off x="34644739" y="26541260"/>
+          <a:ext cx="595780" cy="246221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26360,13 +26473,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>242606</xdr:colOff>
+      <xdr:colOff>256213</xdr:colOff>
       <xdr:row>139</xdr:row>
       <xdr:rowOff>67587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>226065</xdr:colOff>
+      <xdr:colOff>239672</xdr:colOff>
       <xdr:row>140</xdr:row>
       <xdr:rowOff>123308</xdr:rowOff>
     </xdr:to>
@@ -26377,8 +26490,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30627356" y="26547087"/>
-          <a:ext cx="554959" cy="246221"/>
+          <a:off x="32600392" y="26547087"/>
+          <a:ext cx="595780" cy="246221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26500,14 +26613,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>294732</xdr:colOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>471625</xdr:colOff>
       <xdr:row>139</xdr:row>
       <xdr:rowOff>82249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>278191</xdr:colOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>455085</xdr:colOff>
       <xdr:row>140</xdr:row>
       <xdr:rowOff>137970</xdr:rowOff>
     </xdr:to>
@@ -26518,8 +26631,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="35822982" y="26561749"/>
-          <a:ext cx="554959" cy="246221"/>
+          <a:off x="38939018" y="26561749"/>
+          <a:ext cx="595781" cy="246221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26782,16 +26895,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>517815</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>108012</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>90075</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>163733</xdr:rowOff>
+      <xdr:colOff>395351</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>121619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>579933</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>177340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26800,8 +26913,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="36617565" y="27730512"/>
-          <a:ext cx="715260" cy="246221"/>
+          <a:off x="40087387" y="27363119"/>
+          <a:ext cx="796903" cy="246221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26923,16 +27036,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>328195</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>61859</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>236439</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>140024</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>396230</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>143503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>304474</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>31168</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -26941,8 +27054,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30141445" y="27874859"/>
-          <a:ext cx="1051244" cy="459165"/>
+          <a:off x="30291123" y="27575503"/>
+          <a:ext cx="1132887" cy="459165"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -27253,29 +27366,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>21491</xdr:colOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>304474</xdr:colOff>
       <xdr:row>143</xdr:row>
       <xdr:rowOff>143804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>328194</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>100942</xdr:rowOff>
+      <xdr:colOff>21493</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>182586</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="488" name="Conector em curva 487"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="487" idx="2"/>
-          <a:endCxn id="486" idx="1"/>
+          <a:endCxn id="486" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="29628524" y="27591521"/>
-          <a:ext cx="719138" cy="306703"/>
+        <a:xfrm rot="5400000">
+          <a:off x="31378789" y="27430525"/>
+          <a:ext cx="419782" cy="329340"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -27849,29 +27962,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>407654</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>50470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>57</xdr:col>
-      <xdr:colOff>189382</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:colOff>502905</xdr:colOff>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>92328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>162163</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>9073</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="506" name="Conector em curva 505"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="464" idx="2"/>
+          <a:stCxn id="464" idx="0"/>
           <a:endCxn id="524" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="32757839" y="27422035"/>
-          <a:ext cx="994358" cy="353228"/>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="35800358" y="26108661"/>
+          <a:ext cx="488245" cy="271579"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -28050,16 +28163,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>532310</xdr:colOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>423452</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>157246</xdr:rowOff>
+      <xdr:rowOff>143639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>85333</xdr:colOff>
+      <xdr:colOff>588797</xdr:colOff>
       <xdr:row>146</xdr:row>
-      <xdr:rowOff>176356</xdr:rowOff>
+      <xdr:rowOff>162749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -28068,8 +28181,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29202560" y="27589246"/>
-          <a:ext cx="696023" cy="400110"/>
+          <a:off x="31542988" y="27575639"/>
+          <a:ext cx="777666" cy="400110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -28201,16 +28314,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>570035</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>25947</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>282587</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>81668</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>365928</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>148414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>78479</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>13635</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -28219,8 +28332,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="29811785" y="28791447"/>
-          <a:ext cx="284052" cy="246221"/>
+          <a:off x="33934749" y="28151914"/>
+          <a:ext cx="324873" cy="246221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -28341,14 +28454,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>464005</xdr:colOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>123829</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>37025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>272584</xdr:colOff>
+      <xdr:rowOff>77845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>422261</xdr:colOff>
       <xdr:row>139</xdr:row>
       <xdr:rowOff>81836</xdr:rowOff>
     </xdr:to>
@@ -28362,8 +28475,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="34731139" y="26063141"/>
-          <a:ext cx="616311" cy="380079"/>
+          <a:off x="37840370" y="26124375"/>
+          <a:ext cx="575491" cy="298432"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector2">
           <a:avLst/>
@@ -28391,16 +28504,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>106846</xdr:colOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>256524</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>26224</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>231369</xdr:colOff>
+      <xdr:rowOff>67045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>381046</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>45334</xdr:rowOff>
+      <xdr:rowOff>86155</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -28409,8 +28522,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="35063596" y="25934224"/>
-          <a:ext cx="696023" cy="400110"/>
+          <a:off x="38111595" y="25975045"/>
+          <a:ext cx="736844" cy="400110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -28542,32 +28655,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>316482</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>147319</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>65023</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>146972</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>278344</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>108236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>51415</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>10900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="512" name="Conector em curva 511"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="469" idx="1"/>
-          <a:endCxn id="478" idx="2"/>
+          <a:endCxn id="478" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="27843732" y="27007819"/>
-          <a:ext cx="3177541" cy="1904653"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
+          <a:off x="28948594" y="26778236"/>
+          <a:ext cx="5283964" cy="1617164"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 104326"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
           <a:tailEnd type="triangle"/>
@@ -28592,32 +28707,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>267209</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>180495</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>368853</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>146970</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>253601</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>123121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>456111</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>10900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="520" name="Conector em curva 519"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="466" idx="2"/>
+          <a:stCxn id="466" idx="3"/>
           <a:endCxn id="469" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="33767543" y="25639911"/>
-          <a:ext cx="1871475" cy="4673644"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
+        <a:xfrm flipH="1">
+          <a:off x="35659387" y="26793121"/>
+          <a:ext cx="5101081" cy="1602279"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4481"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
           <a:tailEnd type="triangle"/>
@@ -28996,15 +29113,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>272163</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>367413</xdr:colOff>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>53245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>407654</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>502904</xdr:colOff>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>131410</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -29014,8 +29131,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31799913" y="27866245"/>
-          <a:ext cx="1278491" cy="459165"/>
+          <a:off x="34548556" y="25770745"/>
+          <a:ext cx="1360134" cy="459165"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -29159,16 +29276,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>106877</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>65834</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>57</xdr:col>
-      <xdr:colOff>231400</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>84944</xdr:rowOff>
+      <xdr:colOff>569518</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>11405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>81720</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>30515</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -29177,8 +29294,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="32777627" y="27307334"/>
-          <a:ext cx="696023" cy="400110"/>
+          <a:off x="35975304" y="25919405"/>
+          <a:ext cx="736845" cy="400110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -29308,197 +29425,180 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>236439</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>92328</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>272163</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>100942</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="528" name="Conector de seta reta 527"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="486" idx="3"/>
-          <a:endCxn id="524" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="31192689" y="28095828"/>
-          <a:ext cx="607224" cy="8614"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>284263</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>53245</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>187572</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>108966</xdr:rowOff>
-    </xdr:to>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="912686" cy="298800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="529" name="CaixaDeTexto 96"/>
+        <xdr:cNvPr id="39" name="CaixaDeTexto 38"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31240513" y="27866245"/>
-          <a:ext cx="474809" cy="246221"/>
+          <a:off x="29690785" y="25159607"/>
+          <a:ext cx="912686" cy="298800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
       <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="pt-BR"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
+        <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1000">
+            <a:rPr lang="pt-BR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Feed</a:t>
+            <a:t>DOMAIN</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>435430</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="673389" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="531" name="CaixaDeTexto 530"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36453537" y="25159607"/>
+          <a:ext cx="673389" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>TASK</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>40825</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1401538" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="534" name="CaixaDeTexto 533"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34221968" y="27608893"/>
+          <a:ext cx="1401538" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>APPLICATION</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -29767,8 +29867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="Z1:AO461"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="S16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI220" sqref="AI220"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AI116" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AY160" sqref="AY160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
